--- a/Midterm_report/2022Mid.xlsx
+++ b/Midterm_report/2022Mid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="27">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -67,30 +67,155 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <sz val="9"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
@@ -105,24 +230,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7999816888943144"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -207,6 +506,104 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -247,12 +644,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,12 +803,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,56 +827,36 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -335,8 +865,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -691,7 +1269,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -701,370 +1278,396 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col width="16.26953125" customWidth="1" style="11" min="1" max="1"/>
-    <col width="21.7265625" customWidth="1" style="11" min="2" max="2"/>
-    <col width="16.26953125" customWidth="1" style="11" min="3" max="3"/>
-    <col width="14.08984375" customWidth="1" style="11" min="4" max="4"/>
-    <col width="16.26953125" customWidth="1" style="11" min="5" max="5"/>
-    <col width="27.36328125" customWidth="1" style="11" min="6" max="6"/>
-    <col width="20.90625" customWidth="1" style="11" min="7" max="8"/>
-    <col width="37.81640625" customWidth="1" style="11" min="9" max="9"/>
-    <col width="14.08984375" customWidth="1" style="11" min="10" max="11"/>
-    <col width="23.08984375" customWidth="1" style="11" min="12" max="12"/>
-    <col width="36.6328125" customWidth="1" style="11" min="13" max="13"/>
-    <col width="25.453125" customWidth="1" style="11" min="14" max="14"/>
-    <col width="29.90625" customWidth="1" style="11" min="15" max="15"/>
-    <col width="25.453125" customWidth="1" style="11" min="16" max="16"/>
-    <col width="29.90625" customWidth="1" style="11" min="17" max="17"/>
-    <col width="16.26953125" customWidth="1" style="11" min="18" max="18"/>
-    <col width="14.08984375" customWidth="1" style="11" min="19" max="19"/>
-    <col width="16.453125" customWidth="1" style="11" min="20" max="20"/>
-    <col width="27.6328125" customWidth="1" style="11" min="21" max="21"/>
-    <col width="16.453125" customWidth="1" style="11" min="22" max="23"/>
-    <col width="26.26953125" customWidth="1" style="11" min="24" max="24"/>
-    <col width="55.1796875" customWidth="1" style="11" min="25" max="25"/>
-    <col width="46.90625" customWidth="1" style="11" min="26" max="26"/>
-    <col width="31.54296875" customWidth="1" style="11" min="27" max="27"/>
-    <col width="24.453125" customWidth="1" style="11" min="28" max="28"/>
-    <col width="27.6328125" customWidth="1" style="11" min="29" max="29"/>
-    <col width="51.54296875" bestFit="1" customWidth="1" style="11" min="30" max="30"/>
-    <col width="44.90625" bestFit="1" customWidth="1" style="11" min="31" max="31"/>
-    <col width="27.6328125" customWidth="1" style="11" min="32" max="33"/>
-    <col width="10" customWidth="1" style="11" min="34" max="16384"/>
+    <col width="16.2685185185185" customWidth="1" style="19" min="1" max="1"/>
+    <col width="21.7222222222222" customWidth="1" style="19" min="2" max="2"/>
+    <col width="16.2685185185185" customWidth="1" style="19" min="3" max="3"/>
+    <col width="14.0925925925926" customWidth="1" style="19" min="4" max="4"/>
+    <col width="16.2685185185185" customWidth="1" style="19" min="5" max="5"/>
+    <col width="27.3611111111111" customWidth="1" style="19" min="6" max="6"/>
+    <col width="20.9074074074074" customWidth="1" style="19" min="7" max="8"/>
+    <col width="37.8148148148148" customWidth="1" style="19" min="9" max="9"/>
+    <col width="14.0925925925926" customWidth="1" style="19" min="10" max="11"/>
+    <col width="23.0925925925926" customWidth="1" style="19" min="12" max="12"/>
+    <col width="36.6296296296296" customWidth="1" style="19" min="13" max="13"/>
+    <col width="25.4537037037037" customWidth="1" style="19" min="14" max="14"/>
+    <col width="29.9074074074074" customWidth="1" style="19" min="15" max="15"/>
+    <col width="25.4537037037037" customWidth="1" style="19" min="16" max="16"/>
+    <col width="29.9074074074074" customWidth="1" style="19" min="17" max="17"/>
+    <col width="16.2685185185185" customWidth="1" style="19" min="18" max="18"/>
+    <col width="14.0925925925926" customWidth="1" style="19" min="19" max="19"/>
+    <col width="16.4537037037037" customWidth="1" style="19" min="20" max="20"/>
+    <col width="27.6296296296296" customWidth="1" style="19" min="21" max="21"/>
+    <col width="16.4537037037037" customWidth="1" style="19" min="22" max="23"/>
+    <col width="26.2685185185185" customWidth="1" style="19" min="24" max="24"/>
+    <col width="55.1759259259259" customWidth="1" style="19" min="25" max="25"/>
+    <col width="46.9074074074074" customWidth="1" style="19" min="26" max="26"/>
+    <col width="31.5462962962963" customWidth="1" style="19" min="27" max="27"/>
+    <col width="24.4537037037037" customWidth="1" style="19" min="28" max="28"/>
+    <col width="27.6296296296296" customWidth="1" style="19" min="29" max="29"/>
+    <col width="51.5462962962963" customWidth="1" style="19" min="30" max="30"/>
+    <col width="44.9074074074074" customWidth="1" style="19" min="31" max="31"/>
+    <col width="32.1111111111111" customWidth="1" style="19" min="32" max="32"/>
+    <col width="11.8888888888889" customWidth="1" style="19" min="33" max="35"/>
+    <col width="32.1111111111111" customWidth="1" style="19" min="36" max="37"/>
+    <col width="15.2222222222222" customWidth="1" style="18" min="38" max="38"/>
+    <col width="14.1111111111111" customWidth="1" style="18" min="39" max="39"/>
+    <col width="11.8888888888889" customWidth="1" style="18" min="40" max="40"/>
+    <col width="32.1111111111111" customWidth="1" style="18" min="41" max="41"/>
+    <col width="10" customWidth="1" style="19" min="42" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" customFormat="1" s="19">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>资产类型</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>主要财务指标</t>
         </is>
       </c>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="27" t="n"/>
-      <c r="G1" s="27" t="n"/>
-      <c r="H1" s="27" t="n"/>
-      <c r="I1" s="27" t="n"/>
-      <c r="J1" s="27" t="n"/>
-      <c r="K1" s="27" t="n"/>
-      <c r="L1" s="27" t="n"/>
-      <c r="M1" s="28" t="n"/>
-      <c r="N1" s="16" t="inlineStr">
+      <c r="E1" s="24" t="n"/>
+      <c r="F1" s="24" t="n"/>
+      <c r="G1" s="24" t="n"/>
+      <c r="H1" s="24" t="n"/>
+      <c r="I1" s="24" t="n"/>
+      <c r="J1" s="24" t="n"/>
+      <c r="K1" s="24" t="n"/>
+      <c r="L1" s="24" t="n"/>
+      <c r="M1" s="25" t="n"/>
+      <c r="N1" s="20" t="inlineStr">
         <is>
           <t>收益分配情况</t>
         </is>
       </c>
-      <c r="O1" s="27" t="n"/>
-      <c r="P1" s="27" t="n"/>
-      <c r="Q1" s="27" t="n"/>
-      <c r="R1" s="27" t="n"/>
-      <c r="S1" s="27" t="n"/>
-      <c r="T1" s="27" t="n"/>
-      <c r="U1" s="27" t="n"/>
-      <c r="V1" s="27" t="n"/>
-      <c r="W1" s="28" t="n"/>
-      <c r="X1" s="16" t="inlineStr">
+      <c r="O1" s="24" t="n"/>
+      <c r="P1" s="24" t="n"/>
+      <c r="Q1" s="24" t="n"/>
+      <c r="R1" s="24" t="n"/>
+      <c r="S1" s="24" t="n"/>
+      <c r="T1" s="24" t="n"/>
+      <c r="U1" s="24" t="n"/>
+      <c r="V1" s="24" t="n"/>
+      <c r="W1" s="25" t="n"/>
+      <c r="X1" s="20" t="inlineStr">
         <is>
           <t>其他基金指标</t>
         </is>
       </c>
-      <c r="Y1" s="27" t="n"/>
-      <c r="Z1" s="27" t="n"/>
-      <c r="AA1" s="27" t="n"/>
-      <c r="AB1" s="27" t="n"/>
-      <c r="AC1" s="28" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="29" t="n"/>
-      <c r="B2" s="29" t="n"/>
-      <c r="C2" s="29" t="n"/>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="Y1" s="24" t="n"/>
+      <c r="Z1" s="24" t="n"/>
+      <c r="AA1" s="24" t="n"/>
+      <c r="AB1" s="24" t="n"/>
+      <c r="AC1" s="25" t="n"/>
+      <c r="AL1" s="21" t="n"/>
+      <c r="AM1" s="21" t="n"/>
+      <c r="AN1" s="21" t="n"/>
+      <c r="AO1" s="21" t="n"/>
+    </row>
+    <row r="2" customFormat="1" s="19">
+      <c r="A2" s="26" t="n"/>
+      <c r="B2" s="26" t="n"/>
+      <c r="C2" s="26" t="n"/>
+      <c r="D2" s="21" t="inlineStr">
         <is>
           <t>本期收入(元)</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="21" t="inlineStr">
         <is>
           <t>本期净利润(元)</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" s="21" t="inlineStr">
         <is>
           <t>经营活动现金流量净额(元)</t>
         </is>
       </c>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="21" t="inlineStr">
         <is>
           <t>期末基金总资产(元)</t>
         </is>
       </c>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>期末基金净资产(元)</t>
         </is>
       </c>
-      <c r="I2" s="12" t="inlineStr">
+      <c r="I2" s="21" t="inlineStr">
         <is>
           <t>期末基金总资产与净资产的比例（%）</t>
         </is>
       </c>
-      <c r="J2" s="12" t="inlineStr">
+      <c r="J2" s="21" t="inlineStr">
         <is>
           <t>营业收入(元)</t>
         </is>
       </c>
-      <c r="K2" s="12" t="inlineStr">
+      <c r="K2" s="21" t="inlineStr">
         <is>
           <t>营业成本(元)</t>
         </is>
       </c>
-      <c r="L2" s="12" t="inlineStr">
+      <c r="L2" s="21" t="inlineStr">
         <is>
           <t>期末基金份额净值(元)</t>
         </is>
       </c>
-      <c r="M2" s="14" t="inlineStr">
+      <c r="M2" s="21" t="inlineStr">
         <is>
           <t>期末基金份额公允价值参考净值(元)</t>
         </is>
       </c>
-      <c r="N2" s="12" t="inlineStr">
+      <c r="N2" s="21" t="inlineStr">
         <is>
           <t>可供分配金额(本期)(元)</t>
         </is>
       </c>
-      <c r="O2" s="12" t="inlineStr">
+      <c r="O2" s="21" t="inlineStr">
         <is>
           <t>单位可供分配金额(本期)(元)</t>
         </is>
       </c>
-      <c r="P2" s="12" t="inlineStr">
+      <c r="P2" s="21" t="inlineStr">
         <is>
           <t>实际分配金额(本期)(元)</t>
         </is>
       </c>
-      <c r="Q2" s="12" t="inlineStr">
+      <c r="Q2" s="21" t="inlineStr">
         <is>
           <t>单位实际分配金额(本期)(元)</t>
         </is>
       </c>
-      <c r="R2" s="12" t="inlineStr">
+      <c r="R2" s="21" t="inlineStr">
         <is>
           <t>折旧和摊销(元)</t>
         </is>
       </c>
-      <c r="S2" s="12" t="inlineStr">
+      <c r="S2" s="21" t="inlineStr">
         <is>
           <t>利息支出(元)</t>
         </is>
       </c>
-      <c r="T2" s="12" t="inlineStr">
+      <c r="T2" s="21" t="inlineStr">
         <is>
           <t>所得税费用(元)</t>
         </is>
       </c>
-      <c r="U2" s="12" t="inlineStr">
+      <c r="U2" s="21" t="inlineStr">
         <is>
           <t>税息折旧及摊销前利润(元)</t>
         </is>
       </c>
-      <c r="V2" s="12" t="inlineStr">
+      <c r="V2" s="21" t="inlineStr">
         <is>
           <t>调增项合计(元)</t>
         </is>
       </c>
-      <c r="W2" s="12" t="inlineStr">
+      <c r="W2" s="21" t="inlineStr">
         <is>
           <t>调减项合计(元)</t>
         </is>
       </c>
-      <c r="X2" s="12" t="inlineStr">
+      <c r="X2" s="21" t="inlineStr">
         <is>
           <t>货币资金和结算备付金合计</t>
         </is>
       </c>
-      <c r="Y2" s="15" t="inlineStr">
+      <c r="Y2" s="23" t="inlineStr">
         <is>
           <t>持有人户数（户）</t>
         </is>
       </c>
-      <c r="Z2" s="15" t="inlineStr">
+      <c r="Z2" s="23" t="inlineStr">
         <is>
           <t>户均持有的基金份额（份）</t>
         </is>
       </c>
-      <c r="AA2" s="15" t="inlineStr">
+      <c r="AA2" s="23" t="inlineStr">
         <is>
           <t>机构投资者持有份数</t>
         </is>
       </c>
-      <c r="AB2" s="14" t="inlineStr">
+      <c r="AB2" s="21" t="inlineStr">
         <is>
           <t>个人投资者持有份数</t>
         </is>
       </c>
-      <c r="AC2" s="12" t="inlineStr">
+      <c r="AC2" s="21" t="inlineStr">
         <is>
           <t>报告期末基金份额总额</t>
         </is>
       </c>
-      <c r="AD2" s="12" t="inlineStr">
+      <c r="AD2" s="21" t="inlineStr">
         <is>
           <t>基金管理人所有从业人员持有本基金份额总数（份）</t>
         </is>
       </c>
-      <c r="AE2" s="14" t="inlineStr">
+      <c r="AE2" s="21" t="inlineStr">
         <is>
           <t>基金管理人所有从业人员持有本基金份额占比</t>
         </is>
       </c>
-      <c r="AF2" s="12" t="n"/>
-      <c r="AG2" s="12" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="AF2" s="21" t="n"/>
+      <c r="AG2" s="21" t="n"/>
+      <c r="AH2" s="21" t="n"/>
+      <c r="AI2" s="21" t="n"/>
+      <c r="AJ2" s="21" t="n"/>
+      <c r="AK2" s="21" t="n"/>
+      <c r="AL2" s="21" t="n"/>
+      <c r="AM2" s="21" t="n"/>
+      <c r="AN2" s="21" t="n"/>
+      <c r="AO2" s="21" t="n"/>
+    </row>
+    <row r="3" customFormat="1" s="19">
+      <c r="A3" s="22" t="inlineStr">
         <is>
           <t>180101.SZ</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>博时招商蛇口产业园REIT</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr"/>
-      <c r="D3" s="12" t="n">
+      <c r="C3" s="22" t="inlineStr"/>
+      <c r="D3" s="21" t="n">
         <v>65415252.42</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="21" t="n">
         <v>26453881.33</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="21" t="n">
         <v>31495922.45</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="21" t="n">
         <v>2564436921.59</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="21" t="n">
         <v>2080559632.05</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="21" t="n">
         <v>1.2326</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="21" t="n">
         <v>63641366.29</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="K3" s="21" t="n">
         <v>5957201.96</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="21" t="n">
         <v>2.3117</v>
       </c>
-      <c r="M3" s="12" t="inlineStr"/>
-      <c r="N3" s="12" t="n">
+      <c r="M3" s="21" t="inlineStr"/>
+      <c r="N3" s="21" t="n">
         <v>28823467.3</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="21" t="n">
         <v>0.03</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="21" t="n">
         <v>27089589.06</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="21" t="n">
         <v>0.03</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="21" t="n">
         <v>29158652.7</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="21" t="n">
         <v>6718613.24</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="21" t="n">
         <v>-7143668.77</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="21" t="n">
         <v>55187478.5</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="21" t="n">
         <v>4629265.89</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="21" t="n">
         <v>-30993277.09</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="21" t="n">
         <v>818735.71</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="21" t="n">
         <v>158989</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="21" t="n">
         <v>5660.77</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="21" t="n">
         <v>750892400</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="21" t="n">
         <v>149107600</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="21" t="n">
         <v>900000000</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="21" t="n">
         <v>2243</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AF3" s="12" t="n"/>
-      <c r="AG3" s="12" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="AF3" s="21" t="n"/>
+      <c r="AG3" s="21" t="n"/>
+      <c r="AH3" s="21" t="n"/>
+      <c r="AI3" s="21" t="n"/>
+      <c r="AJ3" s="21" t="n"/>
+      <c r="AK3" s="21" t="n"/>
+      <c r="AL3" s="21" t="n"/>
+      <c r="AM3" s="21" t="n"/>
+      <c r="AN3" s="21" t="n"/>
+      <c r="AO3" s="21" t="n"/>
+    </row>
+    <row r="4" customFormat="1" s="19">
+      <c r="A4" s="22" t="inlineStr">
         <is>
           <t>180201.SZ</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="22" t="inlineStr">
         <is>
           <t>平安广交投广河高速REIT</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr"/>
-      <c r="D4" s="12" t="n">
+      <c r="C4" s="22" t="inlineStr"/>
+      <c r="D4" s="21" t="n">
         <v>323542757.47</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="21" t="n">
         <v>102050367.58</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="21" t="n">
         <v>264284460.51</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="21" t="n">
         <v>9896282864.82</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="21" t="n">
         <v>8829816882.860001</v>
       </c>
       <c r="I4" t="n">
@@ -1073,228 +1676,244 @@
       <c r="J4" t="n">
         <v>321475569.35</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="21" t="n">
         <v>429803688.32</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="21" t="n">
         <v>12.614</v>
       </c>
-      <c r="M4" s="12" t="inlineStr"/>
-      <c r="N4" s="12" t="n">
+      <c r="M4" s="21" t="inlineStr"/>
+      <c r="N4" s="21" t="n">
         <v>256903376.42</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="21" t="n">
         <v>0.367</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="21" t="n">
         <v>147349805.66</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="21" t="n">
         <v>0.2105</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="21" t="n">
         <v>139188570.68</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="21" t="n">
         <v>21336996.66</v>
       </c>
-      <c r="T4" s="12" t="inlineStr"/>
-      <c r="U4" s="12" t="n">
+      <c r="T4" s="21" t="inlineStr"/>
+      <c r="U4" s="21" t="n">
         <v>262575934.92</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="21" t="n">
         <v>191469090.66</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="21" t="n">
         <v>-197141649.16</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="21" t="n">
         <v>2028214.83</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="21" t="n">
         <v>79436</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="21" t="n">
         <v>8812.129999999999</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="21" t="n">
         <v>664291367</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="21" t="n">
         <v>35708633</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="21" t="n">
         <v>700000000</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="21" t="n">
         <v>10402</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="21" t="n">
         <v>0.0015</v>
       </c>
-      <c r="AF4" s="12" t="n"/>
-      <c r="AG4" s="12" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="AF4" s="21" t="n"/>
+      <c r="AG4" s="21" t="n"/>
+      <c r="AH4" s="21" t="n"/>
+      <c r="AI4" s="21" t="n"/>
+      <c r="AJ4" s="21" t="n"/>
+      <c r="AK4" s="21" t="n"/>
+      <c r="AL4" s="21" t="n"/>
+      <c r="AM4" s="21" t="n"/>
+      <c r="AN4" s="21" t="n"/>
+      <c r="AO4" s="21" t="n"/>
+    </row>
+    <row r="5" customFormat="1" s="19">
+      <c r="A5" s="22" t="inlineStr">
         <is>
           <t>180202.SZ</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="22" t="inlineStr">
         <is>
           <t>华夏越秀高速公路REIT</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr"/>
-      <c r="D5" s="12" t="n">
+      <c r="C5" s="22" t="inlineStr"/>
+      <c r="D5" s="21" t="n">
         <v>106637454.54</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="21" t="n">
         <v>28142672.19</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="21" t="n">
         <v>74272273.73999999</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="21" t="n">
         <v>2614972373.37</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="21" t="n">
         <v>2156922321.73</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="21" t="n">
         <v>1.2124</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="21" t="n">
         <v>105305388.36</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="K5" s="21" t="n">
         <v>144049253.04</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="21" t="n">
         <v>7.1897</v>
       </c>
-      <c r="M5" s="12" t="inlineStr"/>
-      <c r="N5" s="12" t="n">
+      <c r="M5" s="21" t="inlineStr"/>
+      <c r="N5" s="21" t="n">
         <v>70280087.41</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="21" t="n">
         <v>0.2343</v>
       </c>
-      <c r="P5" s="12" t="inlineStr"/>
-      <c r="Q5" s="12" t="inlineStr"/>
-      <c r="R5" s="12" t="n">
+      <c r="P5" s="21" t="inlineStr"/>
+      <c r="Q5" s="21" t="inlineStr"/>
+      <c r="R5" s="21" t="n">
         <v>43236621.7</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="21" t="n">
         <v>6032345.77</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="21" t="n">
         <v>2802803.77</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="21" t="n">
         <v>80214443.43000001</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="21" t="n">
         <v>16593192.83</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="21" t="n">
         <v>-26527548.85</v>
       </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="21" t="n">
         <v>106980</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="21" t="n">
         <v>2804.26</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="21" t="n">
         <v>259993428</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="21" t="n">
         <v>40006572</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="21" t="n">
         <v>300000000</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="21" t="n">
         <v>4176</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AF5" s="12" t="n"/>
-      <c r="AG5" s="12" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="AF5" s="21" t="n"/>
+      <c r="AG5" s="21" t="n"/>
+      <c r="AH5" s="21" t="n"/>
+      <c r="AI5" s="21" t="n"/>
+      <c r="AJ5" s="21" t="n"/>
+      <c r="AK5" s="21" t="n"/>
+      <c r="AL5" s="21" t="n"/>
+      <c r="AM5" s="21" t="n"/>
+      <c r="AN5" s="21" t="n"/>
+      <c r="AO5" s="21" t="n"/>
+    </row>
+    <row r="6" customFormat="1" s="19">
+      <c r="A6" s="22" t="inlineStr">
         <is>
           <t>180301.SZ</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="22" t="inlineStr">
         <is>
           <t>红土盐田港REIT</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr"/>
-      <c r="D6" s="12" t="n">
+      <c r="C6" s="22" t="inlineStr"/>
+      <c r="D6" s="21" t="n">
         <v>58868504.31</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="21" t="n">
         <v>22336928.74</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="21" t="n">
         <v>74615777.31</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="21" t="n">
         <v>1864171336.61</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="21" t="n">
         <v>1838160045.49</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="21" t="n">
         <v>1.0142</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="21" t="n">
         <v>58054171.02</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="21" t="n">
         <v>41557348.34</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="21" t="n">
         <v>2.2977</v>
       </c>
-      <c r="M6" s="12" t="inlineStr"/>
-      <c r="N6" s="12" t="n">
+      <c r="M6" s="21" t="inlineStr"/>
+      <c r="N6" s="21" t="n">
         <v>45065915.36</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="21" t="n">
         <v>0.0563</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="21" t="n">
         <v>45999999.16</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="21" t="n">
         <v>0.0575</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="21" t="n">
         <v>24709436.96</v>
       </c>
-      <c r="S6" s="12" t="inlineStr"/>
-      <c r="T6" s="12" t="n">
+      <c r="S6" s="21" t="inlineStr"/>
+      <c r="T6" s="21" t="n">
         <v>169552.06</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="21" t="n">
         <v>47215917.76</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="21" t="n">
         <v>608747.5699999999</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="21" t="n">
         <v>-2758749.97</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="21" t="n">
         <v>1982275.41</v>
       </c>
       <c r="Y6" t="n">
@@ -1303,1686 +1922,1967 @@
       <c r="Z6" t="n">
         <v>8421.41</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="21" t="n">
         <v>694933208</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="21" t="n">
         <v>105066792</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="21" t="n">
         <v>800000000</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="21" t="n">
         <v>2385</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="21" t="n">
         <v>0.0003</v>
       </c>
-      <c r="AF6" s="12" t="n"/>
-      <c r="AG6" s="12" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="inlineStr">
+      <c r="AF6" s="21" t="n"/>
+      <c r="AG6" s="21" t="n"/>
+      <c r="AH6" s="21" t="n"/>
+      <c r="AI6" s="21" t="n"/>
+      <c r="AJ6" s="21" t="n"/>
+      <c r="AK6" s="21" t="n"/>
+      <c r="AL6" s="21" t="n"/>
+      <c r="AM6" s="21" t="n"/>
+      <c r="AN6" s="21" t="n"/>
+      <c r="AO6" s="21" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="19">
+      <c r="A7" s="22" t="inlineStr">
         <is>
           <t>180801.SZ</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="22" t="inlineStr">
         <is>
           <t>中航首钢绿能REIT</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr"/>
-      <c r="D7" s="12" t="n">
+      <c r="C7" s="22" t="inlineStr"/>
+      <c r="D7" s="21" t="n">
         <v>213706963.65</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="21" t="n">
         <v>36310003.99</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="21" t="n">
         <v>27791925.55</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="21" t="n">
         <v>1178622249.55</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="21" t="n">
         <v>1114304342.17</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="21" t="n">
         <v>1.0577</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="21" t="n">
         <v>212117229.63</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="K7" s="21" t="n">
         <v>209100825.18</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="21" t="n">
         <v>11.143</v>
       </c>
-      <c r="M7" s="12" t="inlineStr"/>
-      <c r="N7" s="12" t="n">
+      <c r="M7" s="21" t="inlineStr"/>
+      <c r="N7" s="21" t="n">
         <v>39058231.84</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="21" t="n">
         <v>0.3906</v>
       </c>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="21" t="n">
         <v>116039656.19</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="21" t="n">
         <v>1.1604</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="21" t="n">
         <v>38211653.72</v>
       </c>
-      <c r="S7" s="12" t="inlineStr"/>
-      <c r="T7" s="12" t="n">
+      <c r="S7" s="21" t="inlineStr"/>
+      <c r="T7" s="21" t="n">
         <v>-1305701.24</v>
       </c>
-      <c r="U7" s="12" t="n">
+      <c r="U7" s="21" t="n">
         <v>73215956.47</v>
       </c>
-      <c r="V7" s="12" t="n">
+      <c r="V7" s="21" t="n">
         <v>209060695.49</v>
       </c>
-      <c r="W7" s="12" t="n">
+      <c r="W7" s="21" t="n">
         <v>-45485563.83</v>
       </c>
-      <c r="X7" s="12" t="n">
+      <c r="X7" s="21" t="n">
         <v>3600616.09</v>
       </c>
-      <c r="Y7" s="12" t="n">
+      <c r="Y7" s="21" t="n">
         <v>91451</v>
       </c>
-      <c r="Z7" s="12" t="n">
+      <c r="Z7" s="21" t="n">
         <v>1093.48</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="21" t="n">
         <v>73946677</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="21" t="n">
         <v>26053323</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="21" t="n">
         <v>100000000</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="21" t="n">
         <v>448</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AF7" s="12" t="n"/>
-      <c r="AG7" s="12" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="AF7" s="21" t="n"/>
+      <c r="AG7" s="21" t="n"/>
+      <c r="AH7" s="21" t="n"/>
+      <c r="AI7" s="21" t="n"/>
+      <c r="AJ7" s="21" t="n"/>
+      <c r="AK7" s="21" t="n"/>
+      <c r="AL7" s="21" t="n"/>
+      <c r="AM7" s="21" t="n"/>
+      <c r="AN7" s="21" t="n"/>
+      <c r="AO7" s="21" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="19">
+      <c r="A8" s="22" t="inlineStr">
         <is>
           <t>508000.SH</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="22" t="inlineStr">
         <is>
           <t>华安张江光大园REIT</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr"/>
-      <c r="D8" s="12" t="n">
+      <c r="C8" s="22" t="inlineStr"/>
+      <c r="D8" s="21" t="n">
         <v>43346230.28</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="21" t="n">
         <v>-13306521.26</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="21" t="n">
         <v>38485675.35</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="21" t="n">
         <v>1484305294.1</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="21" t="n">
         <v>1429501640.57</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="21" t="n">
         <v>1.0383</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="21" t="n">
         <v>42144640.97</v>
       </c>
-      <c r="K8" s="12" t="n">
+      <c r="K8" s="21" t="n">
         <v>43196495.36</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="21" t="n">
         <v>2.859</v>
       </c>
-      <c r="M8" s="12" t="inlineStr"/>
-      <c r="N8" s="12" t="n">
+      <c r="M8" s="21" t="inlineStr"/>
+      <c r="N8" s="21" t="n">
         <v>33571575.53</v>
       </c>
-      <c r="O8" s="12" t="n">
+      <c r="O8" s="21" t="n">
         <v>0.06710000000000001</v>
       </c>
-      <c r="P8" s="12" t="n">
+      <c r="P8" s="21" t="n">
         <v>40000000</v>
       </c>
-      <c r="Q8" s="12" t="n">
+      <c r="Q8" s="21" t="n">
         <v>0.08</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="21" t="n">
         <v>47317612.26</v>
       </c>
-      <c r="S8" s="12" t="inlineStr"/>
-      <c r="T8" s="12" t="n">
+      <c r="S8" s="21" t="inlineStr"/>
+      <c r="T8" s="21" t="n">
         <v>-245106.85</v>
       </c>
-      <c r="U8" s="12" t="n">
+      <c r="U8" s="21" t="n">
         <v>33765984.15</v>
       </c>
-      <c r="V8" s="12" t="n">
+      <c r="V8" s="21" t="n">
         <v>1948606.54</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="21" t="n">
         <v>-2143015.16</v>
       </c>
-      <c r="X8" s="12" t="n">
+      <c r="X8" s="21" t="n">
         <v>743915.86</v>
       </c>
-      <c r="Y8" s="12" t="n">
+      <c r="Y8" s="21" t="n">
         <v>57152</v>
       </c>
-      <c r="Z8" s="12" t="n">
+      <c r="Z8" s="21" t="n">
         <v>8748.6</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="21" t="n">
         <v>447787499</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="21" t="n">
         <v>52212501</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="21" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="21" t="n">
         <v>19188</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" s="12" t="n"/>
-      <c r="AG8" s="12" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="AF8" s="21" t="n"/>
+      <c r="AG8" s="21" t="n"/>
+      <c r="AH8" s="21" t="n"/>
+      <c r="AI8" s="21" t="n"/>
+      <c r="AJ8" s="21" t="n"/>
+      <c r="AK8" s="21" t="n"/>
+      <c r="AL8" s="21" t="n"/>
+      <c r="AM8" s="21" t="n"/>
+      <c r="AN8" s="21" t="n"/>
+      <c r="AO8" s="21" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="19">
+      <c r="A9" s="22" t="inlineStr">
         <is>
           <t>508001.SH</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="22" t="inlineStr">
         <is>
           <t>浙商沪杭甬REIT</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr"/>
-      <c r="D9" s="12" t="n">
+      <c r="C9" s="22" t="inlineStr"/>
+      <c r="D9" s="21" t="n">
         <v>291946043.18</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="21" t="n">
         <v>-47854400.99</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="21" t="n">
         <v>166963496.19</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="21" t="n">
         <v>4233349470.78</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="21" t="n">
         <v>3763008483.24</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="21" t="n">
         <v>1.125</v>
       </c>
-      <c r="J9" s="12" t="n">
+      <c r="J9" s="21" t="n">
         <v>289007121.5</v>
       </c>
-      <c r="K9" s="12" t="n">
+      <c r="K9" s="21" t="n">
         <v>211616514.6</v>
       </c>
-      <c r="L9" s="12" t="n">
+      <c r="L9" s="21" t="n">
         <v>7.526</v>
       </c>
-      <c r="M9" s="12" t="inlineStr"/>
-      <c r="N9" s="12" t="n">
+      <c r="M9" s="21" t="inlineStr"/>
+      <c r="N9" s="21" t="n">
         <v>190258336.36</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="21" t="n">
         <v>0.3805</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="21" t="n">
         <v>364049873.78</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="21" t="n">
         <v>0.7281</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="21" t="n">
         <v>231846881.42</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="21" t="n">
         <v>9402788.85</v>
       </c>
-      <c r="T9" s="12" t="inlineStr"/>
-      <c r="U9" s="12" t="n">
+      <c r="T9" s="21" t="inlineStr"/>
+      <c r="U9" s="21" t="n">
         <v>193395269.28</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="21" t="n">
         <v>14265855.93</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="21" t="n">
         <v>-17402788.85</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="21" t="n">
         <v>502050.83</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="21" t="n">
         <v>184137</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="21" t="n">
         <v>2715.37</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="21" t="n">
         <v>466769429</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="21" t="n">
         <v>33230571</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="21" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="21" t="n">
         <v>58</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" s="12" t="n"/>
-      <c r="AG9" s="12" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="AF9" s="21" t="n"/>
+      <c r="AG9" s="21" t="n"/>
+      <c r="AH9" s="21" t="n"/>
+      <c r="AI9" s="21" t="n"/>
+      <c r="AJ9" s="21" t="n"/>
+      <c r="AK9" s="21" t="n"/>
+      <c r="AL9" s="21" t="n"/>
+      <c r="AM9" s="21" t="n"/>
+      <c r="AN9" s="21" t="n"/>
+      <c r="AO9" s="21" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="19">
+      <c r="A10" s="22" t="inlineStr">
         <is>
           <t>508006.SH</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B10" s="22" t="inlineStr">
         <is>
           <t>富国首创水务封闭式 REIT</t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr"/>
-      <c r="D10" s="12" t="n">
+      <c r="C10" s="22" t="inlineStr"/>
+      <c r="D10" s="21" t="n">
         <v>145608369.53</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="21" t="n">
         <v>21037739.36</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="21" t="n">
         <v>104679349.06</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="21" t="n">
         <v>1902086475.13</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="21" t="n">
         <v>1771332762.61</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="21" t="n">
         <v>1.0738</v>
       </c>
-      <c r="J10" s="12" t="n">
+      <c r="J10" s="21" t="n">
         <v>144154703.64</v>
       </c>
-      <c r="K10" s="12" t="n">
+      <c r="K10" s="21" t="n">
         <v>109346763.35</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="L10" s="21" t="n">
         <v>3.5427</v>
       </c>
-      <c r="M10" s="12" t="inlineStr"/>
-      <c r="N10" s="12" t="n">
+      <c r="M10" s="21" t="inlineStr"/>
+      <c r="N10" s="21" t="n">
         <v>74190892.08</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="21" t="n">
         <v>0.1484</v>
       </c>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="21" t="n">
         <v>135700074.95</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="21" t="n">
         <v>0.2714</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="21" t="n">
         <v>57379595.99</v>
       </c>
-      <c r="S10" s="12" t="inlineStr"/>
-      <c r="T10" s="12" t="n">
+      <c r="S10" s="21" t="inlineStr"/>
+      <c r="T10" s="21" t="n">
         <v>3516321.61</v>
       </c>
-      <c r="U10" s="12" t="n">
+      <c r="U10" s="21" t="n">
         <v>81933656.95999999</v>
       </c>
-      <c r="V10" s="12" t="n">
+      <c r="V10" s="21" t="n">
         <v>287639018.15</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="21" t="n">
         <v>-295381783.03</v>
       </c>
-      <c r="X10" s="12" t="n">
+      <c r="X10" s="21" t="n">
         <v>760564.58</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="21" t="n">
         <v>141529</v>
       </c>
-      <c r="Z10" s="12" t="n">
+      <c r="Z10" s="21" t="n">
         <v>3532.84</v>
       </c>
-      <c r="AA10" s="12" t="n">
+      <c r="AA10" s="21" t="n">
         <v>417143688</v>
       </c>
-      <c r="AB10" s="12" t="n">
+      <c r="AB10" s="21" t="n">
         <v>82856312</v>
       </c>
-      <c r="AC10" s="12" t="n">
+      <c r="AC10" s="21" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD10" s="12" t="n">
+      <c r="AD10" s="21" t="n">
         <v>348</v>
       </c>
-      <c r="AE10" s="12" t="n">
+      <c r="AE10" s="21" t="n">
         <v>0.0001</v>
       </c>
-      <c r="AF10" s="12" t="n"/>
-      <c r="AG10" s="12" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="inlineStr">
+      <c r="AF10" s="21" t="n"/>
+      <c r="AG10" s="21" t="n"/>
+      <c r="AH10" s="21" t="n"/>
+      <c r="AI10" s="21" t="n"/>
+      <c r="AJ10" s="21" t="n"/>
+      <c r="AK10" s="21" t="n"/>
+      <c r="AL10" s="21" t="n"/>
+      <c r="AM10" s="21" t="n"/>
+      <c r="AN10" s="21" t="n"/>
+      <c r="AO10" s="21" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="19">
+      <c r="A11" s="22" t="inlineStr">
         <is>
           <t>508018.SH</t>
         </is>
       </c>
-      <c r="B11" s="13" t="inlineStr">
+      <c r="B11" s="22" t="inlineStr">
         <is>
           <t>华夏中国交建高速REIT</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr"/>
-      <c r="D11" s="12" t="n">
+      <c r="C11" s="22" t="inlineStr"/>
+      <c r="D11" s="21" t="n">
         <v>106288992.6</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="21" t="n">
         <v>33164438.59</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="21" t="n">
         <v>21741470.25</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="21" t="n">
         <v>10861675706.37</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="21" t="n">
         <v>9432162232.610001</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="21" t="n">
         <v>1.1516</v>
       </c>
-      <c r="J11" s="12" t="n">
+      <c r="J11" s="21" t="n">
         <v>89519993.23999999</v>
       </c>
-      <c r="K11" s="12" t="n">
+      <c r="K11" s="21" t="n">
         <v>193138498.05</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="21" t="n">
         <v>9.4322</v>
       </c>
-      <c r="M11" s="12" t="inlineStr"/>
-      <c r="N11" s="12" t="n">
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="n">
         <v>82904520.3</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="21" t="n">
         <v>0.0829</v>
       </c>
-      <c r="P11" s="12" t="inlineStr"/>
-      <c r="Q11" s="12" t="inlineStr"/>
-      <c r="R11" s="12" t="n">
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="n">
         <v>39406987.7</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="21" t="n">
         <v>14912240.19</v>
       </c>
-      <c r="T11" s="12" t="inlineStr"/>
-      <c r="U11" s="12" t="n">
+      <c r="T11" s="21" t="inlineStr"/>
+      <c r="U11" s="21" t="n">
         <v>87483666.48</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="21" t="n">
         <v>10665215478.12</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="21" t="n">
         <v>-10669794624.3</v>
       </c>
-      <c r="X11" s="12" t="inlineStr"/>
-      <c r="Y11" s="12" t="n">
+      <c r="X11" s="21" t="inlineStr"/>
+      <c r="Y11" s="21" t="n">
         <v>333110</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="21" t="n">
         <v>3002.01</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="21" t="n">
         <v>918633542</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="21" t="n">
         <v>81366458</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="21" t="n">
         <v>1000000000</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="21" t="n">
         <v>7732</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AF11" s="12" t="n"/>
-      <c r="AG11" s="12" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="inlineStr">
+      <c r="AF11" s="21" t="n"/>
+      <c r="AG11" s="21" t="n"/>
+      <c r="AH11" s="21" t="n"/>
+      <c r="AI11" s="21" t="n"/>
+      <c r="AJ11" s="21" t="n"/>
+      <c r="AK11" s="21" t="n"/>
+      <c r="AL11" s="21" t="n"/>
+      <c r="AM11" s="21" t="n"/>
+      <c r="AN11" s="21" t="n"/>
+      <c r="AO11" s="21" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="19">
+      <c r="A12" s="22" t="inlineStr">
         <is>
           <t>508027.SH</t>
         </is>
       </c>
-      <c r="B12" s="13" t="inlineStr">
+      <c r="B12" s="22" t="inlineStr">
         <is>
           <t>东吴苏园产业REIT</t>
         </is>
       </c>
-      <c r="C12" s="13" t="inlineStr"/>
-      <c r="D12" s="12" t="n">
+      <c r="C12" s="22" t="inlineStr"/>
+      <c r="D12" s="21" t="n">
         <v>93466985.62</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="21" t="n">
         <v>21314962.03</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="21" t="n">
         <v>53887527.83</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" s="21" t="n">
         <v>3577226172.55</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="21" t="n">
         <v>3453570689.87</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="21" t="n">
         <v>1.0358</v>
       </c>
-      <c r="J12" s="12" t="n">
+      <c r="J12" s="21" t="n">
         <v>91783438.46000001</v>
       </c>
-      <c r="K12" s="12" t="n">
+      <c r="K12" s="21" t="n">
         <v>12461937.33</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="21" t="n">
         <v>3.8373</v>
       </c>
-      <c r="M12" s="12" t="inlineStr"/>
-      <c r="N12" s="12" t="n">
+      <c r="M12" s="21" t="inlineStr"/>
+      <c r="N12" s="21" t="n">
         <v>52445950.43</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="21" t="n">
         <v>0.0583</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="21" t="n">
         <v>92609992.94</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="21" t="n">
         <v>0.1029</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="21" t="n">
         <v>45560248.02</v>
       </c>
-      <c r="S12" s="12" t="inlineStr"/>
-      <c r="T12" s="12" t="inlineStr"/>
-      <c r="U12" s="12" t="n">
+      <c r="S12" s="21" t="inlineStr"/>
+      <c r="T12" s="21" t="inlineStr"/>
+      <c r="U12" s="21" t="n">
         <v>66875210.05</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="21" t="n">
         <v>14724441.49</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="21" t="n">
         <v>-29153701.11</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="21" t="n">
         <v>4198179.84</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="21" t="n">
         <v>62606</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="21" t="n">
         <v>14375.62</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="21" t="n">
         <v>849784548</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="21" t="n">
         <v>50215452</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="21" t="n">
         <v>900000000</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="21" t="n">
         <v>37</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AF12" s="12" t="n"/>
-      <c r="AG12" s="12" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="inlineStr">
+      <c r="AF12" s="21" t="n"/>
+      <c r="AG12" s="21" t="n"/>
+      <c r="AH12" s="21" t="n"/>
+      <c r="AI12" s="21" t="n"/>
+      <c r="AJ12" s="21" t="n"/>
+      <c r="AK12" s="21" t="n"/>
+      <c r="AL12" s="21" t="n"/>
+      <c r="AM12" s="21" t="n"/>
+      <c r="AN12" s="21" t="n"/>
+      <c r="AO12" s="21" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="19">
+      <c r="A13" s="22" t="inlineStr">
         <is>
           <t>508056.SH</t>
         </is>
       </c>
-      <c r="B13" s="13" t="inlineStr">
+      <c r="B13" s="22" t="inlineStr">
         <is>
           <t>中金普洛斯REIT</t>
         </is>
       </c>
-      <c r="C13" s="13" t="inlineStr"/>
-      <c r="D13" s="12" t="n">
+      <c r="C13" s="22" t="inlineStr"/>
+      <c r="D13" s="21" t="n">
         <v>180994934.25</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="21" t="n">
         <v>15817796.05</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="21" t="n">
         <v>121865048.06</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="21" t="n">
         <v>6796842876.31</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="21" t="n">
         <v>5714905054.23</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="21" t="n">
         <v>1.1893</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="J13" s="21" t="n">
         <v>176425618.59</v>
       </c>
-      <c r="K13" s="12" t="n">
+      <c r="K13" s="21" t="n">
         <v>57818681.28</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="21" t="n">
         <v>3.8099</v>
       </c>
-      <c r="M13" s="12" t="inlineStr"/>
-      <c r="N13" s="12" t="n">
+      <c r="M13" s="21" t="inlineStr"/>
+      <c r="N13" s="21" t="n">
         <v>140873226.57</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="21" t="n">
         <v>0.0939</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="21" t="n">
         <v>72645020.75</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="21" t="n">
         <v>0.0484</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="21" t="n">
         <v>126783192.22</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="21" t="n">
         <v>2825178.32</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="21" t="n">
         <v>-23739188.42</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="21" t="n">
         <v>121686978.17</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="21" t="n">
         <v>30784493.59</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="21" t="n">
         <v>-11598245.19</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="21" t="n">
         <v>7910679.69</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="21" t="n">
         <v>80258</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="21" t="n">
         <v>18689.73</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="21" t="n">
         <v>1420933064</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="21" t="n">
         <v>79066936</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="21" t="n">
         <v>1500000000</v>
       </c>
-      <c r="AD13" s="12" t="inlineStr"/>
-      <c r="AE13" s="12" t="inlineStr"/>
-      <c r="AF13" s="12" t="n"/>
-      <c r="AG13" s="12" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="inlineStr">
+      <c r="AD13" s="21" t="inlineStr"/>
+      <c r="AE13" s="21" t="inlineStr"/>
+      <c r="AF13" s="21" t="n"/>
+      <c r="AG13" s="21" t="n"/>
+      <c r="AH13" s="21" t="n"/>
+      <c r="AI13" s="21" t="n"/>
+      <c r="AJ13" s="21" t="n"/>
+      <c r="AK13" s="21" t="n"/>
+      <c r="AL13" s="21" t="n"/>
+      <c r="AM13" s="21" t="n"/>
+      <c r="AN13" s="21" t="n"/>
+      <c r="AO13" s="21" t="n"/>
+    </row>
+    <row r="14" customFormat="1" s="19">
+      <c r="A14" s="22" t="inlineStr">
         <is>
           <t>508099.SH</t>
         </is>
       </c>
-      <c r="B14" s="13" t="inlineStr">
+      <c r="B14" s="22" t="inlineStr">
         <is>
           <t>建信中关村产业园REIT</t>
         </is>
       </c>
-      <c r="C14" s="13" t="inlineStr"/>
-      <c r="D14" s="12" t="n">
+      <c r="C14" s="22" t="inlineStr"/>
+      <c r="D14" s="21" t="n">
         <v>120008938.58</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="21" t="n">
         <v>45140123.55</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="21" t="n">
         <v>103200402.94</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="21" t="n">
         <v>3710809461</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="21" t="n">
         <v>2889078903.02</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="21" t="n">
         <v>1.2844</v>
       </c>
-      <c r="J14" s="12" t="n">
+      <c r="J14" s="21" t="n">
         <v>118789090.18</v>
       </c>
-      <c r="K14" s="12" t="n">
+      <c r="K14" s="21" t="n">
         <v>51224169.76</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="21" t="n">
         <v>3.2101</v>
       </c>
-      <c r="M14" s="12" t="inlineStr"/>
-      <c r="N14" s="12" t="n">
+      <c r="M14" s="21" t="inlineStr"/>
+      <c r="N14" s="21" t="n">
         <v>77932118.54000001</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="21" t="n">
         <v>0.0866</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="21" t="n">
         <v>44099916.86</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="21" t="n">
         <v>0.049</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="21" t="n">
         <v>34650528.78</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="21" t="n">
         <v>9154728.48</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="21" t="n">
         <v>975382.73</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="21" t="n">
         <v>89920763.54000001</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="21" t="n">
         <v>120607777</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="21" t="n">
         <v>-132596422.01</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="21" t="n">
         <v>2297246.23</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="21" t="n">
         <v>180467</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="21" t="n">
         <v>4987.06</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="21" t="n">
         <v>794937191</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="21" t="n">
         <v>105062809</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="21" t="n">
         <v>900000000</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="21" t="n">
         <v>104</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AF14" s="12" t="n"/>
-      <c r="AG14" s="12" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="12" t="n"/>
-      <c r="E15" s="12" t="n"/>
-      <c r="F15" s="12" t="n"/>
-      <c r="G15" s="12" t="n"/>
-      <c r="H15" s="12" t="n"/>
-      <c r="I15" s="12" t="n"/>
-      <c r="J15" s="12" t="n"/>
-      <c r="K15" s="12" t="n"/>
-      <c r="L15" s="12" t="n"/>
-      <c r="M15" s="12" t="n"/>
-      <c r="N15" s="12" t="n"/>
-      <c r="O15" s="12" t="n"/>
-      <c r="P15" s="12" t="n"/>
-      <c r="Q15" s="12" t="n"/>
-      <c r="R15" s="12" t="n"/>
-      <c r="S15" s="12" t="n"/>
-      <c r="T15" s="12" t="n"/>
-      <c r="U15" s="12" t="n"/>
-      <c r="V15" s="12" t="n"/>
-      <c r="W15" s="12" t="n"/>
-      <c r="X15" s="12" t="n"/>
-      <c r="Y15" s="12" t="n"/>
-      <c r="Z15" s="12" t="n"/>
-      <c r="AA15" s="12" t="n"/>
-      <c r="AB15" s="12" t="n"/>
-      <c r="AC15" s="12" t="n"/>
-      <c r="AD15" s="12" t="n"/>
-      <c r="AE15" s="12" t="n"/>
-      <c r="AF15" s="12" t="n"/>
-      <c r="AG15" s="12" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="12" t="n"/>
-      <c r="E16" s="12" t="n"/>
-      <c r="F16" s="12" t="n"/>
-      <c r="G16" s="12" t="n"/>
-      <c r="H16" s="12" t="n"/>
-      <c r="I16" s="12" t="n"/>
-      <c r="J16" s="12" t="n"/>
-      <c r="K16" s="12" t="n"/>
-      <c r="L16" s="12" t="n"/>
-      <c r="M16" s="12" t="n"/>
-      <c r="N16" s="12" t="n"/>
-      <c r="O16" s="12" t="n"/>
-      <c r="P16" s="12" t="n"/>
-      <c r="Q16" s="12" t="n"/>
-      <c r="R16" s="12" t="n"/>
-      <c r="S16" s="12" t="n"/>
-      <c r="T16" s="12" t="n"/>
-      <c r="U16" s="12" t="n"/>
-      <c r="V16" s="12" t="n"/>
-      <c r="W16" s="12" t="n"/>
-      <c r="X16" s="12" t="n"/>
-      <c r="Y16" s="12" t="n"/>
-      <c r="Z16" s="12" t="n"/>
-      <c r="AA16" s="12" t="n"/>
-      <c r="AB16" s="12" t="n"/>
-      <c r="AC16" s="12" t="n"/>
-      <c r="AD16" s="12" t="n"/>
-      <c r="AE16" s="12" t="n"/>
-      <c r="AF16" s="12" t="n"/>
-      <c r="AG16" s="12" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="12" t="n"/>
-      <c r="E17" s="12" t="n"/>
-      <c r="F17" s="12" t="n"/>
-      <c r="G17" s="12" t="n"/>
-      <c r="H17" s="12" t="n"/>
-      <c r="I17" s="12" t="n"/>
-      <c r="J17" s="12" t="n"/>
-      <c r="K17" s="12" t="n"/>
-      <c r="L17" s="12" t="n"/>
-      <c r="M17" s="12" t="n"/>
-      <c r="N17" s="12" t="n"/>
-      <c r="O17" s="12" t="n"/>
-      <c r="P17" s="12" t="n"/>
-      <c r="Q17" s="12" t="n"/>
-      <c r="R17" s="12" t="n"/>
-      <c r="S17" s="12" t="n"/>
-      <c r="T17" s="12" t="n"/>
-      <c r="U17" s="12" t="n"/>
-      <c r="V17" s="12" t="n"/>
-      <c r="W17" s="12" t="n"/>
-      <c r="X17" s="12" t="n"/>
-      <c r="Y17" s="12" t="n"/>
-      <c r="Z17" s="12" t="n"/>
-      <c r="AA17" s="12" t="n"/>
-      <c r="AB17" s="12" t="n"/>
-      <c r="AC17" s="12" t="n"/>
-      <c r="AD17" s="12" t="n"/>
-      <c r="AE17" s="12" t="n"/>
-      <c r="AF17" s="12" t="n"/>
-      <c r="AG17" s="12" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="12" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="12" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="12" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="12" t="n"/>
-      <c r="K18" s="12" t="n"/>
-      <c r="L18" s="12" t="n"/>
-      <c r="M18" s="12" t="n"/>
-      <c r="N18" s="12" t="n"/>
-      <c r="O18" s="12" t="n"/>
-      <c r="P18" s="12" t="n"/>
-      <c r="Q18" s="12" t="n"/>
-      <c r="R18" s="12" t="n"/>
-      <c r="S18" s="12" t="n"/>
-      <c r="T18" s="12" t="n"/>
-      <c r="U18" s="12" t="n"/>
-      <c r="V18" s="12" t="n"/>
-      <c r="W18" s="12" t="n"/>
-      <c r="X18" s="12" t="n"/>
-      <c r="Y18" s="12" t="n"/>
-      <c r="Z18" s="12" t="n"/>
-      <c r="AA18" s="12" t="n"/>
-      <c r="AB18" s="12" t="n"/>
-      <c r="AC18" s="12" t="n"/>
-      <c r="AD18" s="12" t="n"/>
-      <c r="AE18" s="12" t="n"/>
-      <c r="AF18" s="12" t="n"/>
-      <c r="AG18" s="12" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="12" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="12" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="12" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="12" t="n"/>
-      <c r="K19" s="12" t="n"/>
-      <c r="L19" s="12" t="n"/>
-      <c r="M19" s="12" t="n"/>
-      <c r="N19" s="12" t="n"/>
-      <c r="O19" s="12" t="n"/>
-      <c r="P19" s="12" t="n"/>
-      <c r="Q19" s="12" t="n"/>
-      <c r="R19" s="12" t="n"/>
-      <c r="S19" s="12" t="n"/>
-      <c r="T19" s="12" t="n"/>
-      <c r="U19" s="12" t="n"/>
-      <c r="V19" s="12" t="n"/>
-      <c r="W19" s="12" t="n"/>
-      <c r="X19" s="12" t="n"/>
-      <c r="Y19" s="12" t="n"/>
-      <c r="Z19" s="12" t="n"/>
-      <c r="AA19" s="12" t="n"/>
-      <c r="AB19" s="12" t="n"/>
-      <c r="AC19" s="12" t="n"/>
-      <c r="AD19" s="12" t="n"/>
-      <c r="AE19" s="12" t="n"/>
-      <c r="AF19" s="12" t="n"/>
-      <c r="AG19" s="12" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="12" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="12" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="12" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="12" t="n"/>
-      <c r="K20" s="12" t="n"/>
-      <c r="L20" s="12" t="n"/>
-      <c r="M20" s="12" t="n"/>
-      <c r="N20" s="12" t="n"/>
-      <c r="O20" s="12" t="n"/>
-      <c r="P20" s="12" t="n"/>
-      <c r="Q20" s="12" t="n"/>
-      <c r="R20" s="12" t="n"/>
-      <c r="S20" s="12" t="n"/>
-      <c r="T20" s="12" t="n"/>
-      <c r="U20" s="12" t="n"/>
-      <c r="V20" s="12" t="n"/>
-      <c r="W20" s="12" t="n"/>
-      <c r="X20" s="12" t="n"/>
-      <c r="Y20" s="12" t="n"/>
-      <c r="Z20" s="12" t="n"/>
-      <c r="AA20" s="12" t="n"/>
-      <c r="AB20" s="12" t="n"/>
-      <c r="AC20" s="12" t="n"/>
-      <c r="AD20" s="12" t="n"/>
-      <c r="AE20" s="12" t="n"/>
-      <c r="AF20" s="12" t="n"/>
-      <c r="AG20" s="12" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="12" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="12" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="12" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="12" t="n"/>
-      <c r="K21" s="12" t="n"/>
-      <c r="L21" s="12" t="n"/>
-      <c r="M21" s="12" t="n"/>
-      <c r="N21" s="12" t="n"/>
-      <c r="O21" s="12" t="n"/>
-      <c r="P21" s="12" t="n"/>
-      <c r="Q21" s="12" t="n"/>
-      <c r="R21" s="12" t="n"/>
-      <c r="S21" s="12" t="n"/>
-      <c r="T21" s="12" t="n"/>
-      <c r="U21" s="12" t="n"/>
-      <c r="V21" s="12" t="n"/>
-      <c r="W21" s="12" t="n"/>
-      <c r="X21" s="12" t="n"/>
-      <c r="Y21" s="12" t="n"/>
-      <c r="Z21" s="12" t="n"/>
-      <c r="AA21" s="12" t="n"/>
-      <c r="AB21" s="12" t="n"/>
-      <c r="AC21" s="12" t="n"/>
-      <c r="AD21" s="12" t="n"/>
-      <c r="AE21" s="12" t="n"/>
-      <c r="AF21" s="12" t="n"/>
-      <c r="AG21" s="12" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="n"/>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="12" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="12" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="12" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="12" t="n"/>
-      <c r="K22" s="12" t="n"/>
-      <c r="L22" s="12" t="n"/>
-      <c r="M22" s="12" t="n"/>
-      <c r="N22" s="12" t="n"/>
-      <c r="O22" s="12" t="n"/>
-      <c r="P22" s="12" t="n"/>
-      <c r="Q22" s="12" t="n"/>
-      <c r="R22" s="12" t="n"/>
-      <c r="S22" s="12" t="n"/>
-      <c r="T22" s="12" t="n"/>
-      <c r="U22" s="12" t="n"/>
-      <c r="V22" s="12" t="n"/>
-      <c r="W22" s="12" t="n"/>
-      <c r="X22" s="12" t="n"/>
-      <c r="Y22" s="12" t="n"/>
-      <c r="Z22" s="12" t="n"/>
-      <c r="AA22" s="12" t="n"/>
-      <c r="AB22" s="12" t="n"/>
-      <c r="AC22" s="12" t="n"/>
-      <c r="AD22" s="12" t="n"/>
-      <c r="AE22" s="12" t="n"/>
-      <c r="AF22" s="12" t="n"/>
-      <c r="AG22" s="12" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="12" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="12" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="12" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="12" t="n"/>
-      <c r="K23" s="12" t="n"/>
-      <c r="L23" s="12" t="n"/>
-      <c r="M23" s="12" t="n"/>
-      <c r="N23" s="12" t="n"/>
-      <c r="O23" s="12" t="n"/>
-      <c r="P23" s="12" t="n"/>
-      <c r="Q23" s="12" t="n"/>
-      <c r="R23" s="12" t="n"/>
-      <c r="S23" s="12" t="n"/>
-      <c r="T23" s="12" t="n"/>
-      <c r="U23" s="12" t="n"/>
-      <c r="V23" s="12" t="n"/>
-      <c r="W23" s="12" t="n"/>
-      <c r="X23" s="12" t="n"/>
-      <c r="Y23" s="12" t="n"/>
-      <c r="Z23" s="12" t="n"/>
-      <c r="AA23" s="12" t="n"/>
-      <c r="AB23" s="12" t="n"/>
-      <c r="AC23" s="12" t="n"/>
-      <c r="AD23" s="12" t="n"/>
-      <c r="AE23" s="12" t="n"/>
-      <c r="AF23" s="12" t="n"/>
-      <c r="AG23" s="12" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="12" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="12" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="12" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="12" t="n"/>
-      <c r="K24" s="12" t="n"/>
-      <c r="L24" s="12" t="n"/>
-      <c r="M24" s="12" t="n"/>
-      <c r="N24" s="12" t="n"/>
-      <c r="O24" s="12" t="n"/>
-      <c r="P24" s="12" t="n"/>
-      <c r="Q24" s="12" t="n"/>
-      <c r="R24" s="12" t="n"/>
-      <c r="S24" s="12" t="n"/>
-      <c r="T24" s="12" t="n"/>
-      <c r="U24" s="12" t="n"/>
-      <c r="V24" s="12" t="n"/>
-      <c r="W24" s="12" t="n"/>
-      <c r="X24" s="12" t="n"/>
-      <c r="Y24" s="12" t="n"/>
-      <c r="Z24" s="12" t="n"/>
-      <c r="AA24" s="12" t="n"/>
-      <c r="AB24" s="12" t="n"/>
-      <c r="AC24" s="12" t="n"/>
-      <c r="AD24" s="12" t="n"/>
-      <c r="AE24" s="12" t="n"/>
-      <c r="AF24" s="12" t="n"/>
-      <c r="AG24" s="12" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="12" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="12" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="12" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="12" t="n"/>
-      <c r="K25" s="12" t="n"/>
-      <c r="L25" s="12" t="n"/>
-      <c r="M25" s="12" t="n"/>
-      <c r="N25" s="12" t="n"/>
-      <c r="O25" s="12" t="n"/>
-      <c r="P25" s="12" t="n"/>
-      <c r="Q25" s="12" t="n"/>
-      <c r="R25" s="12" t="n"/>
-      <c r="S25" s="12" t="n"/>
-      <c r="T25" s="12" t="n"/>
-      <c r="U25" s="12" t="n"/>
-      <c r="V25" s="12" t="n"/>
-      <c r="W25" s="12" t="n"/>
-      <c r="X25" s="12" t="n"/>
-      <c r="Y25" s="12" t="n"/>
-      <c r="Z25" s="12" t="n"/>
-      <c r="AA25" s="12" t="n"/>
-      <c r="AB25" s="12" t="n"/>
-      <c r="AC25" s="12" t="n"/>
-      <c r="AD25" s="12" t="n"/>
-      <c r="AE25" s="12" t="n"/>
-      <c r="AF25" s="12" t="n"/>
-      <c r="AG25" s="12" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="12" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="12" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="12" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="12" t="n"/>
-      <c r="K26" s="12" t="n"/>
-      <c r="L26" s="12" t="n"/>
-      <c r="M26" s="12" t="n"/>
-      <c r="N26" s="12" t="n"/>
-      <c r="O26" s="12" t="n"/>
-      <c r="P26" s="12" t="n"/>
-      <c r="Q26" s="12" t="n"/>
-      <c r="R26" s="12" t="n"/>
-      <c r="S26" s="12" t="n"/>
-      <c r="T26" s="12" t="n"/>
-      <c r="U26" s="12" t="n"/>
-      <c r="V26" s="12" t="n"/>
-      <c r="W26" s="12" t="n"/>
-      <c r="X26" s="12" t="n"/>
-      <c r="Y26" s="12" t="n"/>
-      <c r="Z26" s="12" t="n"/>
-      <c r="AA26" s="12" t="n"/>
-      <c r="AB26" s="12" t="n"/>
-      <c r="AC26" s="12" t="n"/>
-      <c r="AD26" s="12" t="n"/>
-      <c r="AE26" s="12" t="n"/>
-      <c r="AF26" s="12" t="n"/>
-      <c r="AG26" s="12" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="n"/>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="13" t="n"/>
-      <c r="D27" s="12" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="12" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="12" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="12" t="n"/>
-      <c r="K27" s="12" t="n"/>
-      <c r="L27" s="12" t="n"/>
-      <c r="M27" s="12" t="n"/>
-      <c r="N27" s="12" t="n"/>
-      <c r="O27" s="12" t="n"/>
-      <c r="P27" s="12" t="n"/>
-      <c r="Q27" s="12" t="n"/>
-      <c r="R27" s="12" t="n"/>
-      <c r="S27" s="12" t="n"/>
-      <c r="T27" s="12" t="n"/>
-      <c r="U27" s="12" t="n"/>
-      <c r="V27" s="12" t="n"/>
-      <c r="W27" s="12" t="n"/>
-      <c r="X27" s="12" t="n"/>
-      <c r="Y27" s="12" t="n"/>
-      <c r="Z27" s="12" t="n"/>
-      <c r="AA27" s="12" t="n"/>
-      <c r="AB27" s="12" t="n"/>
-      <c r="AC27" s="12" t="n"/>
-      <c r="AD27" s="12" t="n"/>
-      <c r="AE27" s="12" t="n"/>
-      <c r="AF27" s="12" t="n"/>
-      <c r="AG27" s="12" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="n"/>
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="13" t="n"/>
-      <c r="D28" s="12" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="12" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="12" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="12" t="n"/>
-      <c r="K28" s="12" t="n"/>
-      <c r="L28" s="12" t="n"/>
-      <c r="M28" s="12" t="n"/>
-      <c r="N28" s="12" t="n"/>
-      <c r="O28" s="12" t="n"/>
-      <c r="P28" s="12" t="n"/>
-      <c r="Q28" s="12" t="n"/>
-      <c r="R28" s="12" t="n"/>
-      <c r="S28" s="12" t="n"/>
-      <c r="T28" s="12" t="n"/>
-      <c r="U28" s="12" t="n"/>
-      <c r="V28" s="12" t="n"/>
-      <c r="W28" s="12" t="n"/>
-      <c r="X28" s="12" t="n"/>
-      <c r="Y28" s="12" t="n"/>
-      <c r="Z28" s="12" t="n"/>
-      <c r="AA28" s="12" t="n"/>
-      <c r="AB28" s="12" t="n"/>
-      <c r="AC28" s="12" t="n"/>
-      <c r="AD28" s="12" t="n"/>
-      <c r="AE28" s="12" t="n"/>
-      <c r="AF28" s="12" t="n"/>
-      <c r="AG28" s="12" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="n"/>
-      <c r="B29" s="13" t="n"/>
-      <c r="C29" s="13" t="n"/>
-      <c r="D29" s="12" t="n"/>
-      <c r="E29" s="12" t="n"/>
-      <c r="F29" s="12" t="n"/>
-      <c r="G29" s="12" t="n"/>
-      <c r="H29" s="12" t="n"/>
-      <c r="I29" s="12" t="n"/>
-      <c r="J29" s="12" t="n"/>
-      <c r="K29" s="12" t="n"/>
-      <c r="L29" s="12" t="n"/>
-      <c r="M29" s="12" t="n"/>
-      <c r="N29" s="12" t="n"/>
-      <c r="O29" s="12" t="n"/>
-      <c r="P29" s="12" t="n"/>
-      <c r="Q29" s="12" t="n"/>
-      <c r="R29" s="12" t="n"/>
-      <c r="S29" s="12" t="n"/>
-      <c r="T29" s="12" t="n"/>
-      <c r="U29" s="12" t="n"/>
-      <c r="V29" s="12" t="n"/>
-      <c r="W29" s="12" t="n"/>
-      <c r="X29" s="12" t="n"/>
-      <c r="Y29" s="12" t="n"/>
-      <c r="Z29" s="12" t="n"/>
-      <c r="AA29" s="12" t="n"/>
-      <c r="AB29" s="12" t="n"/>
-      <c r="AC29" s="12" t="n"/>
-      <c r="AD29" s="12" t="n"/>
-      <c r="AE29" s="12" t="n"/>
-      <c r="AF29" s="12" t="n"/>
-      <c r="AG29" s="12" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="n"/>
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="13" t="n"/>
-      <c r="D30" s="12" t="n"/>
-      <c r="E30" s="12" t="n"/>
-      <c r="F30" s="12" t="n"/>
-      <c r="G30" s="12" t="n"/>
-      <c r="H30" s="12" t="n"/>
-      <c r="I30" s="12" t="n"/>
-      <c r="J30" s="12" t="n"/>
-      <c r="K30" s="12" t="n"/>
-      <c r="L30" s="12" t="n"/>
-      <c r="M30" s="12" t="n"/>
-      <c r="N30" s="12" t="n"/>
-      <c r="O30" s="12" t="n"/>
-      <c r="P30" s="12" t="n"/>
-      <c r="Q30" s="12" t="n"/>
-      <c r="R30" s="12" t="n"/>
-      <c r="S30" s="12" t="n"/>
-      <c r="T30" s="12" t="n"/>
-      <c r="U30" s="12" t="n"/>
-      <c r="V30" s="12" t="n"/>
-      <c r="W30" s="12" t="n"/>
-      <c r="X30" s="12" t="n"/>
-      <c r="Y30" s="12" t="n"/>
-      <c r="Z30" s="12" t="n"/>
-      <c r="AA30" s="12" t="n"/>
-      <c r="AB30" s="12" t="n"/>
-      <c r="AC30" s="12" t="n"/>
-      <c r="AD30" s="12" t="n"/>
-      <c r="AE30" s="12" t="n"/>
-      <c r="AF30" s="12" t="n"/>
-      <c r="AG30" s="12" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="13" t="n"/>
-      <c r="B31" s="13" t="n"/>
-      <c r="C31" s="13" t="n"/>
-      <c r="D31" s="12" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="12" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="12" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="12" t="n"/>
-      <c r="K31" s="12" t="n"/>
-      <c r="L31" s="12" t="n"/>
-      <c r="M31" s="12" t="n"/>
-      <c r="N31" s="12" t="n"/>
-      <c r="O31" s="12" t="n"/>
-      <c r="P31" s="12" t="n"/>
-      <c r="Q31" s="12" t="n"/>
-      <c r="R31" s="12" t="n"/>
-      <c r="S31" s="12" t="n"/>
-      <c r="T31" s="12" t="n"/>
-      <c r="U31" s="12" t="n"/>
-      <c r="V31" s="12" t="n"/>
-      <c r="W31" s="12" t="n"/>
-      <c r="X31" s="12" t="n"/>
-      <c r="Y31" s="12" t="n"/>
-      <c r="Z31" s="12" t="n"/>
-      <c r="AA31" s="12" t="n"/>
-      <c r="AB31" s="12" t="n"/>
-      <c r="AC31" s="12" t="n"/>
-      <c r="AD31" s="12" t="n"/>
-      <c r="AE31" s="12" t="n"/>
-      <c r="AF31" s="12" t="n"/>
-      <c r="AG31" s="12" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="13" t="n"/>
-      <c r="B32" s="13" t="n"/>
-      <c r="C32" s="13" t="n"/>
-      <c r="D32" s="12" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="12" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="12" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="12" t="n"/>
-      <c r="K32" s="12" t="n"/>
-      <c r="L32" s="12" t="n"/>
-      <c r="M32" s="12" t="n"/>
-      <c r="N32" s="12" t="n"/>
-      <c r="O32" s="12" t="n"/>
-      <c r="P32" s="12" t="n"/>
-      <c r="Q32" s="12" t="n"/>
-      <c r="R32" s="12" t="n"/>
-      <c r="S32" s="12" t="n"/>
-      <c r="T32" s="12" t="n"/>
-      <c r="U32" s="12" t="n"/>
-      <c r="V32" s="12" t="n"/>
-      <c r="W32" s="12" t="n"/>
-      <c r="X32" s="12" t="n"/>
-      <c r="Y32" s="12" t="n"/>
-      <c r="Z32" s="12" t="n"/>
-      <c r="AA32" s="12" t="n"/>
-      <c r="AB32" s="12" t="n"/>
-      <c r="AC32" s="12" t="n"/>
-      <c r="AD32" s="12" t="n"/>
-      <c r="AE32" s="12" t="n"/>
-      <c r="AF32" s="12" t="n"/>
-      <c r="AG32" s="12" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="13" t="n"/>
-      <c r="B33" s="13" t="n"/>
-      <c r="C33" s="13" t="n"/>
-      <c r="D33" s="12" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="12" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="12" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="12" t="n"/>
-      <c r="K33" s="12" t="n"/>
-      <c r="L33" s="12" t="n"/>
-      <c r="M33" s="12" t="n"/>
-      <c r="N33" s="12" t="n"/>
-      <c r="O33" s="12" t="n"/>
-      <c r="P33" s="12" t="n"/>
-      <c r="Q33" s="12" t="n"/>
-      <c r="R33" s="12" t="n"/>
-      <c r="S33" s="12" t="n"/>
-      <c r="T33" s="12" t="n"/>
-      <c r="U33" s="12" t="n"/>
-      <c r="V33" s="12" t="n"/>
-      <c r="W33" s="12" t="n"/>
-      <c r="X33" s="12" t="n"/>
-      <c r="Y33" s="12" t="n"/>
-      <c r="Z33" s="12" t="n"/>
-      <c r="AA33" s="12" t="n"/>
-      <c r="AB33" s="12" t="n"/>
-      <c r="AC33" s="12" t="n"/>
-      <c r="AD33" s="12" t="n"/>
-      <c r="AE33" s="12" t="n"/>
-      <c r="AF33" s="12" t="n"/>
-      <c r="AG33" s="12" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="13" t="n"/>
-      <c r="B34" s="13" t="n"/>
-      <c r="C34" s="13" t="n"/>
-      <c r="D34" s="12" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="12" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="12" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="12" t="n"/>
-      <c r="K34" s="12" t="n"/>
-      <c r="L34" s="12" t="n"/>
-      <c r="M34" s="12" t="n"/>
-      <c r="N34" s="12" t="n"/>
-      <c r="O34" s="12" t="n"/>
-      <c r="P34" s="12" t="n"/>
-      <c r="Q34" s="12" t="n"/>
-      <c r="R34" s="12" t="n"/>
-      <c r="S34" s="12" t="n"/>
-      <c r="T34" s="12" t="n"/>
-      <c r="U34" s="12" t="n"/>
-      <c r="V34" s="12" t="n"/>
-      <c r="W34" s="12" t="n"/>
-      <c r="X34" s="12" t="n"/>
-      <c r="Y34" s="12" t="n"/>
-      <c r="Z34" s="12" t="n"/>
-      <c r="AA34" s="12" t="n"/>
-      <c r="AB34" s="12" t="n"/>
-      <c r="AC34" s="12" t="n"/>
-      <c r="AD34" s="12" t="n"/>
-      <c r="AE34" s="12" t="n"/>
-      <c r="AF34" s="12" t="n"/>
-      <c r="AG34" s="12" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="13" t="n"/>
-      <c r="B35" s="13" t="n"/>
-      <c r="C35" s="13" t="n"/>
-      <c r="D35" s="12" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="12" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="12" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="12" t="n"/>
-      <c r="K35" s="12" t="n"/>
-      <c r="L35" s="12" t="n"/>
-      <c r="M35" s="12" t="n"/>
-      <c r="N35" s="12" t="n"/>
-      <c r="O35" s="12" t="n"/>
-      <c r="P35" s="12" t="n"/>
-      <c r="Q35" s="12" t="n"/>
-      <c r="R35" s="12" t="n"/>
-      <c r="S35" s="12" t="n"/>
-      <c r="T35" s="12" t="n"/>
-      <c r="U35" s="12" t="n"/>
-      <c r="V35" s="12" t="n"/>
-      <c r="W35" s="12" t="n"/>
-      <c r="X35" s="12" t="n"/>
-      <c r="Y35" s="12" t="n"/>
-      <c r="Z35" s="12" t="n"/>
-      <c r="AA35" s="12" t="n"/>
-      <c r="AB35" s="12" t="n"/>
-      <c r="AC35" s="12" t="n"/>
-      <c r="AD35" s="12" t="n"/>
-      <c r="AE35" s="12" t="n"/>
-      <c r="AF35" s="12" t="n"/>
-      <c r="AG35" s="12" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="n"/>
-      <c r="B36" s="13" t="n"/>
-      <c r="C36" s="13" t="n"/>
-      <c r="D36" s="12" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="12" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="12" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="12" t="n"/>
-      <c r="K36" s="12" t="n"/>
-      <c r="L36" s="12" t="n"/>
-      <c r="M36" s="12" t="n"/>
-      <c r="N36" s="12" t="n"/>
-      <c r="O36" s="12" t="n"/>
-      <c r="P36" s="12" t="n"/>
-      <c r="Q36" s="12" t="n"/>
-      <c r="R36" s="12" t="n"/>
-      <c r="S36" s="12" t="n"/>
-      <c r="T36" s="12" t="n"/>
-      <c r="U36" s="12" t="n"/>
-      <c r="V36" s="12" t="n"/>
-      <c r="W36" s="12" t="n"/>
-      <c r="X36" s="12" t="n"/>
-      <c r="Y36" s="12" t="n"/>
-      <c r="Z36" s="12" t="n"/>
-      <c r="AA36" s="12" t="n"/>
-      <c r="AB36" s="12" t="n"/>
-      <c r="AC36" s="12" t="n"/>
-      <c r="AD36" s="12" t="n"/>
-      <c r="AE36" s="12" t="n"/>
-      <c r="AF36" s="12" t="n"/>
-      <c r="AG36" s="12" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="n"/>
-      <c r="B37" s="13" t="n"/>
-      <c r="C37" s="13" t="n"/>
-      <c r="D37" s="12" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="12" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="12" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="12" t="n"/>
-      <c r="K37" s="12" t="n"/>
-      <c r="L37" s="12" t="n"/>
-      <c r="M37" s="12" t="n"/>
-      <c r="N37" s="12" t="n"/>
-      <c r="O37" s="12" t="n"/>
-      <c r="P37" s="12" t="n"/>
-      <c r="Q37" s="12" t="n"/>
-      <c r="R37" s="12" t="n"/>
-      <c r="S37" s="12" t="n"/>
-      <c r="T37" s="12" t="n"/>
-      <c r="U37" s="12" t="n"/>
-      <c r="V37" s="12" t="n"/>
-      <c r="W37" s="12" t="n"/>
-      <c r="X37" s="12" t="n"/>
-      <c r="Y37" s="12" t="n"/>
-      <c r="Z37" s="12" t="n"/>
-      <c r="AA37" s="12" t="n"/>
-      <c r="AB37" s="12" t="n"/>
-      <c r="AC37" s="12" t="n"/>
-      <c r="AD37" s="12" t="n"/>
-      <c r="AE37" s="12" t="n"/>
-      <c r="AF37" s="12" t="n"/>
-      <c r="AG37" s="12" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="13" t="n"/>
-      <c r="B38" s="13" t="n"/>
-      <c r="C38" s="13" t="n"/>
-      <c r="D38" s="12" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="12" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="12" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="12" t="n"/>
-      <c r="K38" s="12" t="n"/>
-      <c r="L38" s="12" t="n"/>
-      <c r="M38" s="12" t="n"/>
-      <c r="N38" s="12" t="n"/>
-      <c r="O38" s="12" t="n"/>
-      <c r="P38" s="12" t="n"/>
-      <c r="Q38" s="12" t="n"/>
-      <c r="R38" s="12" t="n"/>
-      <c r="S38" s="12" t="n"/>
-      <c r="T38" s="12" t="n"/>
-      <c r="U38" s="12" t="n"/>
-      <c r="V38" s="12" t="n"/>
-      <c r="W38" s="12" t="n"/>
-      <c r="X38" s="12" t="n"/>
-      <c r="Y38" s="12" t="n"/>
-      <c r="Z38" s="12" t="n"/>
-      <c r="AA38" s="12" t="n"/>
-      <c r="AB38" s="12" t="n"/>
-      <c r="AC38" s="12" t="n"/>
-      <c r="AD38" s="12" t="n"/>
-      <c r="AE38" s="12" t="n"/>
-      <c r="AF38" s="12" t="n"/>
-      <c r="AG38" s="12" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="13" t="n"/>
-      <c r="B39" s="13" t="n"/>
-      <c r="C39" s="13" t="n"/>
-      <c r="D39" s="12" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="12" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="12" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="12" t="n"/>
-      <c r="K39" s="12" t="n"/>
-      <c r="L39" s="12" t="n"/>
-      <c r="M39" s="12" t="n"/>
-      <c r="N39" s="12" t="n"/>
-      <c r="O39" s="12" t="n"/>
-      <c r="P39" s="12" t="n"/>
-      <c r="Q39" s="12" t="n"/>
-      <c r="R39" s="12" t="n"/>
-      <c r="S39" s="12" t="n"/>
-      <c r="T39" s="12" t="n"/>
-      <c r="U39" s="12" t="n"/>
-      <c r="V39" s="12" t="n"/>
-      <c r="W39" s="12" t="n"/>
-      <c r="X39" s="12" t="n"/>
-      <c r="Y39" s="12" t="n"/>
-      <c r="Z39" s="12" t="n"/>
-      <c r="AA39" s="12" t="n"/>
-      <c r="AB39" s="12" t="n"/>
-      <c r="AC39" s="12" t="n"/>
-      <c r="AD39" s="12" t="n"/>
-      <c r="AE39" s="12" t="n"/>
-      <c r="AF39" s="12" t="n"/>
-      <c r="AG39" s="12" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="13" t="n"/>
-      <c r="B40" s="13" t="n"/>
-      <c r="C40" s="13" t="n"/>
-      <c r="D40" s="12" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="12" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="12" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="12" t="n"/>
-      <c r="K40" s="12" t="n"/>
-      <c r="L40" s="12" t="n"/>
-      <c r="M40" s="12" t="n"/>
-      <c r="N40" s="12" t="n"/>
-      <c r="O40" s="12" t="n"/>
-      <c r="P40" s="12" t="n"/>
-      <c r="Q40" s="12" t="n"/>
-      <c r="R40" s="12" t="n"/>
-      <c r="S40" s="12" t="n"/>
-      <c r="T40" s="12" t="n"/>
-      <c r="U40" s="12" t="n"/>
-      <c r="V40" s="12" t="n"/>
-      <c r="W40" s="12" t="n"/>
-      <c r="X40" s="12" t="n"/>
-      <c r="Y40" s="12" t="n"/>
-      <c r="Z40" s="12" t="n"/>
-      <c r="AA40" s="12" t="n"/>
-      <c r="AB40" s="12" t="n"/>
-      <c r="AC40" s="12" t="n"/>
-      <c r="AD40" s="12" t="n"/>
-      <c r="AE40" s="12" t="n"/>
-      <c r="AF40" s="12" t="n"/>
-      <c r="AG40" s="12" t="n"/>
-    </row>
+      <c r="AF14" s="21" t="n"/>
+      <c r="AG14" s="21" t="n"/>
+      <c r="AH14" s="21" t="n"/>
+      <c r="AI14" s="21" t="n"/>
+      <c r="AJ14" s="21" t="n"/>
+      <c r="AK14" s="21" t="n"/>
+      <c r="AL14" s="21" t="n"/>
+      <c r="AM14" s="21" t="n"/>
+      <c r="AN14" s="21" t="n"/>
+      <c r="AO14" s="21" t="n"/>
+    </row>
+    <row r="15" customFormat="1" s="19">
+      <c r="A15" s="22" t="n"/>
+      <c r="B15" s="22" t="n"/>
+      <c r="C15" s="22" t="n"/>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="n"/>
+      <c r="F15" s="21" t="n"/>
+      <c r="G15" s="21" t="n"/>
+      <c r="H15" s="21" t="n"/>
+      <c r="I15" s="21" t="n"/>
+      <c r="J15" s="21" t="n"/>
+      <c r="K15" s="21" t="n"/>
+      <c r="L15" s="21" t="n"/>
+      <c r="M15" s="21" t="n"/>
+      <c r="N15" s="21" t="n"/>
+      <c r="O15" s="21" t="n"/>
+      <c r="P15" s="21" t="n"/>
+      <c r="Q15" s="21" t="n"/>
+      <c r="R15" s="21" t="n"/>
+      <c r="S15" s="21" t="n"/>
+      <c r="T15" s="21" t="n"/>
+      <c r="U15" s="21" t="n"/>
+      <c r="V15" s="21" t="n"/>
+      <c r="W15" s="21" t="n"/>
+      <c r="X15" s="21" t="n"/>
+      <c r="Y15" s="21" t="n"/>
+      <c r="Z15" s="21" t="n"/>
+      <c r="AA15" s="21" t="n"/>
+      <c r="AB15" s="21" t="n"/>
+      <c r="AC15" s="21" t="n"/>
+      <c r="AD15" s="21" t="n"/>
+      <c r="AE15" s="21" t="n"/>
+      <c r="AF15" s="21" t="n"/>
+      <c r="AG15" s="21" t="n"/>
+      <c r="AH15" s="21" t="n"/>
+      <c r="AI15" s="21" t="n"/>
+      <c r="AJ15" s="21" t="n"/>
+      <c r="AK15" s="21" t="n"/>
+      <c r="AL15" s="21" t="n"/>
+      <c r="AM15" s="21" t="n"/>
+      <c r="AN15" s="21" t="n"/>
+      <c r="AO15" s="21" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="19">
+      <c r="A16" s="22" t="n"/>
+      <c r="B16" s="22" t="n"/>
+      <c r="C16" s="22" t="n"/>
+      <c r="D16" s="21" t="n"/>
+      <c r="E16" s="21" t="n"/>
+      <c r="F16" s="21" t="n"/>
+      <c r="G16" s="21" t="n"/>
+      <c r="H16" s="21" t="n"/>
+      <c r="I16" s="21" t="n"/>
+      <c r="J16" s="21" t="n"/>
+      <c r="K16" s="21" t="n"/>
+      <c r="L16" s="21" t="n"/>
+      <c r="M16" s="21" t="n"/>
+      <c r="N16" s="21" t="n"/>
+      <c r="O16" s="21" t="n"/>
+      <c r="P16" s="21" t="n"/>
+      <c r="Q16" s="21" t="n"/>
+      <c r="R16" s="21" t="n"/>
+      <c r="S16" s="21" t="n"/>
+      <c r="T16" s="21" t="n"/>
+      <c r="U16" s="21" t="n"/>
+      <c r="V16" s="21" t="n"/>
+      <c r="W16" s="21" t="n"/>
+      <c r="X16" s="21" t="n"/>
+      <c r="Y16" s="21" t="n"/>
+      <c r="Z16" s="21" t="n"/>
+      <c r="AA16" s="21" t="n"/>
+      <c r="AB16" s="21" t="n"/>
+      <c r="AC16" s="21" t="n"/>
+      <c r="AD16" s="21" t="n"/>
+      <c r="AE16" s="21" t="n"/>
+      <c r="AF16" s="21" t="n"/>
+      <c r="AG16" s="21" t="n"/>
+      <c r="AH16" s="21" t="n"/>
+      <c r="AI16" s="21" t="n"/>
+      <c r="AJ16" s="21" t="n"/>
+      <c r="AK16" s="21" t="n"/>
+      <c r="AL16" s="21" t="n"/>
+      <c r="AM16" s="21" t="n"/>
+      <c r="AN16" s="21" t="n"/>
+      <c r="AO16" s="21" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="19">
+      <c r="A17" s="22" t="n"/>
+      <c r="B17" s="22" t="n"/>
+      <c r="C17" s="22" t="n"/>
+      <c r="D17" s="21" t="n"/>
+      <c r="E17" s="21" t="n"/>
+      <c r="F17" s="21" t="n"/>
+      <c r="G17" s="21" t="n"/>
+      <c r="H17" s="21" t="n"/>
+      <c r="I17" s="21" t="n"/>
+      <c r="J17" s="21" t="n"/>
+      <c r="K17" s="21" t="n"/>
+      <c r="L17" s="21" t="n"/>
+      <c r="M17" s="21" t="n"/>
+      <c r="N17" s="21" t="n"/>
+      <c r="O17" s="21" t="n"/>
+      <c r="P17" s="21" t="n"/>
+      <c r="Q17" s="21" t="n"/>
+      <c r="R17" s="21" t="n"/>
+      <c r="S17" s="21" t="n"/>
+      <c r="T17" s="21" t="n"/>
+      <c r="U17" s="21" t="n"/>
+      <c r="V17" s="21" t="n"/>
+      <c r="W17" s="21" t="n"/>
+      <c r="X17" s="21" t="n"/>
+      <c r="Y17" s="21" t="n"/>
+      <c r="Z17" s="21" t="n"/>
+      <c r="AA17" s="21" t="n"/>
+      <c r="AB17" s="21" t="n"/>
+      <c r="AC17" s="21" t="n"/>
+      <c r="AD17" s="21" t="n"/>
+      <c r="AE17" s="21" t="n"/>
+      <c r="AF17" s="21" t="n"/>
+      <c r="AG17" s="21" t="n"/>
+      <c r="AH17" s="21" t="n"/>
+      <c r="AI17" s="21" t="n"/>
+      <c r="AJ17" s="21" t="n"/>
+      <c r="AK17" s="21" t="n"/>
+      <c r="AL17" s="21" t="n"/>
+      <c r="AM17" s="21" t="n"/>
+      <c r="AN17" s="21" t="n"/>
+      <c r="AO17" s="21" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="19">
+      <c r="A18" s="22" t="n"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="21" t="n"/>
+      <c r="E18" s="21" t="n"/>
+      <c r="F18" s="21" t="n"/>
+      <c r="G18" s="21" t="n"/>
+      <c r="H18" s="21" t="n"/>
+      <c r="I18" s="21" t="n"/>
+      <c r="J18" s="21" t="n"/>
+      <c r="K18" s="21" t="n"/>
+      <c r="L18" s="21" t="n"/>
+      <c r="M18" s="21" t="n"/>
+      <c r="N18" s="21" t="n"/>
+      <c r="O18" s="21" t="n"/>
+      <c r="P18" s="21" t="n"/>
+      <c r="Q18" s="21" t="n"/>
+      <c r="R18" s="21" t="n"/>
+      <c r="S18" s="21" t="n"/>
+      <c r="T18" s="21" t="n"/>
+      <c r="U18" s="21" t="n"/>
+      <c r="V18" s="21" t="n"/>
+      <c r="W18" s="21" t="n"/>
+      <c r="X18" s="21" t="n"/>
+      <c r="Y18" s="21" t="n"/>
+      <c r="Z18" s="21" t="n"/>
+      <c r="AA18" s="21" t="n"/>
+      <c r="AB18" s="21" t="n"/>
+      <c r="AC18" s="21" t="n"/>
+      <c r="AD18" s="21" t="n"/>
+      <c r="AE18" s="21" t="n"/>
+      <c r="AF18" s="21" t="n"/>
+      <c r="AG18" s="21" t="n"/>
+      <c r="AH18" s="21" t="n"/>
+      <c r="AI18" s="21" t="n"/>
+      <c r="AJ18" s="21" t="n"/>
+      <c r="AK18" s="21" t="n"/>
+      <c r="AL18" s="21" t="n"/>
+      <c r="AM18" s="21" t="n"/>
+      <c r="AN18" s="21" t="n"/>
+      <c r="AO18" s="21" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="19">
+      <c r="A19" s="22" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="21" t="n"/>
+      <c r="E19" s="21" t="n"/>
+      <c r="F19" s="21" t="n"/>
+      <c r="G19" s="21" t="n"/>
+      <c r="H19" s="21" t="n"/>
+      <c r="I19" s="21" t="n"/>
+      <c r="J19" s="21" t="n"/>
+      <c r="K19" s="21" t="n"/>
+      <c r="L19" s="21" t="n"/>
+      <c r="M19" s="21" t="n"/>
+      <c r="N19" s="21" t="n"/>
+      <c r="O19" s="21" t="n"/>
+      <c r="P19" s="21" t="n"/>
+      <c r="Q19" s="21" t="n"/>
+      <c r="R19" s="21" t="n"/>
+      <c r="S19" s="21" t="n"/>
+      <c r="T19" s="21" t="n"/>
+      <c r="U19" s="21" t="n"/>
+      <c r="V19" s="21" t="n"/>
+      <c r="W19" s="21" t="n"/>
+      <c r="X19" s="21" t="n"/>
+      <c r="Y19" s="21" t="n"/>
+      <c r="Z19" s="21" t="n"/>
+      <c r="AA19" s="21" t="n"/>
+      <c r="AB19" s="21" t="n"/>
+      <c r="AC19" s="21" t="n"/>
+      <c r="AD19" s="21" t="n"/>
+      <c r="AE19" s="21" t="n"/>
+      <c r="AF19" s="21" t="n"/>
+      <c r="AG19" s="21" t="n"/>
+      <c r="AH19" s="21" t="n"/>
+      <c r="AI19" s="21" t="n"/>
+      <c r="AJ19" s="21" t="n"/>
+      <c r="AK19" s="21" t="n"/>
+      <c r="AL19" s="21" t="n"/>
+      <c r="AM19" s="21" t="n"/>
+      <c r="AN19" s="21" t="n"/>
+      <c r="AO19" s="21" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="19">
+      <c r="A20" s="22" t="n"/>
+      <c r="B20" s="22" t="n"/>
+      <c r="C20" s="22" t="n"/>
+      <c r="D20" s="21" t="n"/>
+      <c r="E20" s="21" t="n"/>
+      <c r="F20" s="21" t="n"/>
+      <c r="G20" s="21" t="n"/>
+      <c r="H20" s="21" t="n"/>
+      <c r="I20" s="21" t="n"/>
+      <c r="J20" s="21" t="n"/>
+      <c r="K20" s="21" t="n"/>
+      <c r="L20" s="21" t="n"/>
+      <c r="M20" s="21" t="n"/>
+      <c r="N20" s="21" t="n"/>
+      <c r="O20" s="21" t="n"/>
+      <c r="P20" s="21" t="n"/>
+      <c r="Q20" s="21" t="n"/>
+      <c r="R20" s="21" t="n"/>
+      <c r="S20" s="21" t="n"/>
+      <c r="T20" s="21" t="n"/>
+      <c r="U20" s="21" t="n"/>
+      <c r="V20" s="21" t="n"/>
+      <c r="W20" s="21" t="n"/>
+      <c r="X20" s="21" t="n"/>
+      <c r="Y20" s="21" t="n"/>
+      <c r="Z20" s="21" t="n"/>
+      <c r="AA20" s="21" t="n"/>
+      <c r="AB20" s="21" t="n"/>
+      <c r="AC20" s="21" t="n"/>
+      <c r="AD20" s="21" t="n"/>
+      <c r="AE20" s="21" t="n"/>
+      <c r="AF20" s="21" t="n"/>
+      <c r="AG20" s="21" t="n"/>
+      <c r="AH20" s="21" t="n"/>
+      <c r="AI20" s="21" t="n"/>
+      <c r="AJ20" s="21" t="n"/>
+      <c r="AK20" s="21" t="n"/>
+      <c r="AL20" s="21" t="n"/>
+      <c r="AM20" s="21" t="n"/>
+      <c r="AN20" s="21" t="n"/>
+      <c r="AO20" s="21" t="n"/>
+    </row>
+    <row r="21" customFormat="1" s="19">
+      <c r="A21" s="22" t="n"/>
+      <c r="B21" s="22" t="n"/>
+      <c r="C21" s="22" t="n"/>
+      <c r="D21" s="21" t="n"/>
+      <c r="E21" s="21" t="n"/>
+      <c r="F21" s="21" t="n"/>
+      <c r="G21" s="21" t="n"/>
+      <c r="H21" s="21" t="n"/>
+      <c r="I21" s="21" t="n"/>
+      <c r="J21" s="21" t="n"/>
+      <c r="K21" s="21" t="n"/>
+      <c r="L21" s="21" t="n"/>
+      <c r="M21" s="21" t="n"/>
+      <c r="N21" s="21" t="n"/>
+      <c r="O21" s="21" t="n"/>
+      <c r="P21" s="21" t="n"/>
+      <c r="Q21" s="21" t="n"/>
+      <c r="R21" s="21" t="n"/>
+      <c r="S21" s="21" t="n"/>
+      <c r="T21" s="21" t="n"/>
+      <c r="U21" s="21" t="n"/>
+      <c r="V21" s="21" t="n"/>
+      <c r="W21" s="21" t="n"/>
+      <c r="X21" s="21" t="n"/>
+      <c r="Y21" s="21" t="n"/>
+      <c r="Z21" s="21" t="n"/>
+      <c r="AA21" s="21" t="n"/>
+      <c r="AB21" s="21" t="n"/>
+      <c r="AC21" s="21" t="n"/>
+      <c r="AD21" s="21" t="n"/>
+      <c r="AE21" s="21" t="n"/>
+      <c r="AF21" s="21" t="n"/>
+      <c r="AG21" s="21" t="n"/>
+      <c r="AH21" s="21" t="n"/>
+      <c r="AI21" s="21" t="n"/>
+      <c r="AJ21" s="21" t="n"/>
+      <c r="AK21" s="21" t="n"/>
+      <c r="AL21" s="21" t="n"/>
+      <c r="AM21" s="21" t="n"/>
+      <c r="AN21" s="21" t="n"/>
+      <c r="AO21" s="21" t="n"/>
+    </row>
+    <row r="22" customFormat="1" s="19">
+      <c r="A22" s="22" t="n"/>
+      <c r="B22" s="22" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="21" t="n"/>
+      <c r="E22" s="21" t="n"/>
+      <c r="F22" s="21" t="n"/>
+      <c r="G22" s="21" t="n"/>
+      <c r="H22" s="21" t="n"/>
+      <c r="I22" s="21" t="n"/>
+      <c r="J22" s="21" t="n"/>
+      <c r="K22" s="21" t="n"/>
+      <c r="L22" s="21" t="n"/>
+      <c r="M22" s="21" t="n"/>
+      <c r="N22" s="21" t="n"/>
+      <c r="O22" s="21" t="n"/>
+      <c r="P22" s="21" t="n"/>
+      <c r="Q22" s="21" t="n"/>
+      <c r="R22" s="21" t="n"/>
+      <c r="S22" s="21" t="n"/>
+      <c r="T22" s="21" t="n"/>
+      <c r="U22" s="21" t="n"/>
+      <c r="V22" s="21" t="n"/>
+      <c r="W22" s="21" t="n"/>
+      <c r="X22" s="21" t="n"/>
+      <c r="Y22" s="21" t="n"/>
+      <c r="Z22" s="21" t="n"/>
+      <c r="AA22" s="21" t="n"/>
+      <c r="AB22" s="21" t="n"/>
+      <c r="AC22" s="21" t="n"/>
+      <c r="AD22" s="21" t="n"/>
+      <c r="AE22" s="21" t="n"/>
+      <c r="AF22" s="21" t="n"/>
+      <c r="AG22" s="21" t="n"/>
+      <c r="AH22" s="21" t="n"/>
+      <c r="AI22" s="21" t="n"/>
+      <c r="AJ22" s="21" t="n"/>
+      <c r="AK22" s="21" t="n"/>
+      <c r="AL22" s="21" t="n"/>
+      <c r="AM22" s="21" t="n"/>
+      <c r="AN22" s="21" t="n"/>
+      <c r="AO22" s="21" t="n"/>
+    </row>
+    <row r="23" customFormat="1" s="19">
+      <c r="A23" s="22" t="n"/>
+      <c r="B23" s="22" t="n"/>
+      <c r="C23" s="22" t="n"/>
+      <c r="D23" s="21" t="n"/>
+      <c r="E23" s="21" t="n"/>
+      <c r="F23" s="21" t="n"/>
+      <c r="G23" s="21" t="n"/>
+      <c r="H23" s="21" t="n"/>
+      <c r="I23" s="21" t="n"/>
+      <c r="J23" s="21" t="n"/>
+      <c r="K23" s="21" t="n"/>
+      <c r="L23" s="21" t="n"/>
+      <c r="M23" s="21" t="n"/>
+      <c r="N23" s="21" t="n"/>
+      <c r="O23" s="21" t="n"/>
+      <c r="P23" s="21" t="n"/>
+      <c r="Q23" s="21" t="n"/>
+      <c r="R23" s="21" t="n"/>
+      <c r="S23" s="21" t="n"/>
+      <c r="T23" s="21" t="n"/>
+      <c r="U23" s="21" t="n"/>
+      <c r="V23" s="21" t="n"/>
+      <c r="W23" s="21" t="n"/>
+      <c r="X23" s="21" t="n"/>
+      <c r="Y23" s="21" t="n"/>
+      <c r="Z23" s="21" t="n"/>
+      <c r="AA23" s="21" t="n"/>
+      <c r="AB23" s="21" t="n"/>
+      <c r="AC23" s="21" t="n"/>
+      <c r="AD23" s="21" t="n"/>
+      <c r="AE23" s="21" t="n"/>
+      <c r="AF23" s="21" t="n"/>
+      <c r="AG23" s="21" t="n"/>
+      <c r="AH23" s="21" t="n"/>
+      <c r="AI23" s="21" t="n"/>
+      <c r="AJ23" s="21" t="n"/>
+      <c r="AK23" s="21" t="n"/>
+      <c r="AL23" s="21" t="n"/>
+      <c r="AM23" s="21" t="n"/>
+      <c r="AN23" s="21" t="n"/>
+      <c r="AO23" s="21" t="n"/>
+    </row>
+    <row r="24" customFormat="1" s="19">
+      <c r="A24" s="22" t="n"/>
+      <c r="B24" s="22" t="n"/>
+      <c r="C24" s="22" t="n"/>
+      <c r="D24" s="21" t="n"/>
+      <c r="E24" s="21" t="n"/>
+      <c r="F24" s="21" t="n"/>
+      <c r="G24" s="21" t="n"/>
+      <c r="H24" s="21" t="n"/>
+      <c r="I24" s="21" t="n"/>
+      <c r="J24" s="21" t="n"/>
+      <c r="K24" s="21" t="n"/>
+      <c r="L24" s="21" t="n"/>
+      <c r="M24" s="21" t="n"/>
+      <c r="N24" s="21" t="n"/>
+      <c r="O24" s="21" t="n"/>
+      <c r="P24" s="21" t="n"/>
+      <c r="Q24" s="21" t="n"/>
+      <c r="R24" s="21" t="n"/>
+      <c r="S24" s="21" t="n"/>
+      <c r="T24" s="21" t="n"/>
+      <c r="U24" s="21" t="n"/>
+      <c r="V24" s="21" t="n"/>
+      <c r="W24" s="21" t="n"/>
+      <c r="X24" s="21" t="n"/>
+      <c r="Y24" s="21" t="n"/>
+      <c r="Z24" s="21" t="n"/>
+      <c r="AA24" s="21" t="n"/>
+      <c r="AB24" s="21" t="n"/>
+      <c r="AC24" s="21" t="n"/>
+      <c r="AD24" s="21" t="n"/>
+      <c r="AE24" s="21" t="n"/>
+      <c r="AF24" s="21" t="n"/>
+      <c r="AG24" s="21" t="n"/>
+      <c r="AH24" s="21" t="n"/>
+      <c r="AI24" s="21" t="n"/>
+      <c r="AJ24" s="21" t="n"/>
+      <c r="AK24" s="21" t="n"/>
+      <c r="AL24" s="21" t="n"/>
+      <c r="AM24" s="21" t="n"/>
+      <c r="AN24" s="21" t="n"/>
+      <c r="AO24" s="21" t="n"/>
+    </row>
+    <row r="25" customFormat="1" s="19">
+      <c r="A25" s="22" t="n"/>
+      <c r="B25" s="22" t="n"/>
+      <c r="C25" s="22" t="n"/>
+      <c r="D25" s="21" t="n"/>
+      <c r="E25" s="21" t="n"/>
+      <c r="F25" s="21" t="n"/>
+      <c r="G25" s="21" t="n"/>
+      <c r="H25" s="21" t="n"/>
+      <c r="I25" s="21" t="n"/>
+      <c r="J25" s="21" t="n"/>
+      <c r="K25" s="21" t="n"/>
+      <c r="L25" s="21" t="n"/>
+      <c r="M25" s="21" t="n"/>
+      <c r="N25" s="21" t="n"/>
+      <c r="O25" s="21" t="n"/>
+      <c r="P25" s="21" t="n"/>
+      <c r="Q25" s="21" t="n"/>
+      <c r="R25" s="21" t="n"/>
+      <c r="S25" s="21" t="n"/>
+      <c r="T25" s="21" t="n"/>
+      <c r="U25" s="21" t="n"/>
+      <c r="V25" s="21" t="n"/>
+      <c r="W25" s="21" t="n"/>
+      <c r="X25" s="21" t="n"/>
+      <c r="Y25" s="21" t="n"/>
+      <c r="Z25" s="21" t="n"/>
+      <c r="AA25" s="21" t="n"/>
+      <c r="AB25" s="21" t="n"/>
+      <c r="AC25" s="21" t="n"/>
+      <c r="AD25" s="21" t="n"/>
+      <c r="AE25" s="21" t="n"/>
+      <c r="AF25" s="21" t="n"/>
+      <c r="AG25" s="21" t="n"/>
+      <c r="AH25" s="21" t="n"/>
+      <c r="AI25" s="21" t="n"/>
+      <c r="AJ25" s="21" t="n"/>
+      <c r="AK25" s="21" t="n"/>
+      <c r="AL25" s="21" t="n"/>
+      <c r="AM25" s="21" t="n"/>
+      <c r="AN25" s="21" t="n"/>
+      <c r="AO25" s="21" t="n"/>
+    </row>
+    <row r="26" customFormat="1" s="19">
+      <c r="A26" s="22" t="n"/>
+      <c r="B26" s="22" t="n"/>
+      <c r="C26" s="22" t="n"/>
+      <c r="D26" s="21" t="n"/>
+      <c r="E26" s="21" t="n"/>
+      <c r="F26" s="21" t="n"/>
+      <c r="G26" s="21" t="n"/>
+      <c r="H26" s="21" t="n"/>
+      <c r="I26" s="21" t="n"/>
+      <c r="J26" s="21" t="n"/>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="21" t="n"/>
+      <c r="M26" s="21" t="n"/>
+      <c r="N26" s="21" t="n"/>
+      <c r="O26" s="21" t="n"/>
+      <c r="P26" s="21" t="n"/>
+      <c r="Q26" s="21" t="n"/>
+      <c r="R26" s="21" t="n"/>
+      <c r="S26" s="21" t="n"/>
+      <c r="T26" s="21" t="n"/>
+      <c r="U26" s="21" t="n"/>
+      <c r="V26" s="21" t="n"/>
+      <c r="W26" s="21" t="n"/>
+      <c r="X26" s="21" t="n"/>
+      <c r="Y26" s="21" t="n"/>
+      <c r="Z26" s="21" t="n"/>
+      <c r="AA26" s="21" t="n"/>
+      <c r="AB26" s="21" t="n"/>
+      <c r="AC26" s="21" t="n"/>
+      <c r="AD26" s="21" t="n"/>
+      <c r="AE26" s="21" t="n"/>
+      <c r="AF26" s="21" t="n"/>
+      <c r="AG26" s="21" t="n"/>
+      <c r="AH26" s="21" t="n"/>
+      <c r="AI26" s="21" t="n"/>
+      <c r="AJ26" s="21" t="n"/>
+      <c r="AK26" s="21" t="n"/>
+      <c r="AL26" s="21" t="n"/>
+      <c r="AM26" s="21" t="n"/>
+      <c r="AN26" s="21" t="n"/>
+      <c r="AO26" s="21" t="n"/>
+    </row>
+    <row r="27" customFormat="1" s="19">
+      <c r="A27" s="22" t="n"/>
+      <c r="B27" s="22" t="n"/>
+      <c r="C27" s="22" t="n"/>
+      <c r="D27" s="21" t="n"/>
+      <c r="E27" s="21" t="n"/>
+      <c r="F27" s="21" t="n"/>
+      <c r="G27" s="21" t="n"/>
+      <c r="H27" s="21" t="n"/>
+      <c r="I27" s="21" t="n"/>
+      <c r="J27" s="21" t="n"/>
+      <c r="K27" s="21" t="n"/>
+      <c r="L27" s="21" t="n"/>
+      <c r="M27" s="21" t="n"/>
+      <c r="N27" s="21" t="n"/>
+      <c r="O27" s="21" t="n"/>
+      <c r="P27" s="21" t="n"/>
+      <c r="Q27" s="21" t="n"/>
+      <c r="R27" s="21" t="n"/>
+      <c r="S27" s="21" t="n"/>
+      <c r="T27" s="21" t="n"/>
+      <c r="U27" s="21" t="n"/>
+      <c r="V27" s="21" t="n"/>
+      <c r="W27" s="21" t="n"/>
+      <c r="X27" s="21" t="n"/>
+      <c r="Y27" s="21" t="n"/>
+      <c r="Z27" s="21" t="n"/>
+      <c r="AA27" s="21" t="n"/>
+      <c r="AB27" s="21" t="n"/>
+      <c r="AC27" s="21" t="n"/>
+      <c r="AD27" s="21" t="n"/>
+      <c r="AE27" s="21" t="n"/>
+      <c r="AF27" s="21" t="n"/>
+      <c r="AG27" s="21" t="n"/>
+      <c r="AH27" s="21" t="n"/>
+      <c r="AI27" s="21" t="n"/>
+      <c r="AJ27" s="21" t="n"/>
+      <c r="AK27" s="21" t="n"/>
+      <c r="AL27" s="21" t="n"/>
+      <c r="AM27" s="21" t="n"/>
+      <c r="AN27" s="21" t="n"/>
+      <c r="AO27" s="21" t="n"/>
+    </row>
+    <row r="28" customFormat="1" s="19">
+      <c r="A28" s="22" t="n"/>
+      <c r="B28" s="22" t="n"/>
+      <c r="C28" s="22" t="n"/>
+      <c r="D28" s="21" t="n"/>
+      <c r="E28" s="21" t="n"/>
+      <c r="F28" s="21" t="n"/>
+      <c r="G28" s="21" t="n"/>
+      <c r="H28" s="21" t="n"/>
+      <c r="I28" s="21" t="n"/>
+      <c r="J28" s="21" t="n"/>
+      <c r="K28" s="21" t="n"/>
+      <c r="L28" s="21" t="n"/>
+      <c r="M28" s="21" t="n"/>
+      <c r="N28" s="21" t="n"/>
+      <c r="O28" s="21" t="n"/>
+      <c r="P28" s="21" t="n"/>
+      <c r="Q28" s="21" t="n"/>
+      <c r="R28" s="21" t="n"/>
+      <c r="S28" s="21" t="n"/>
+      <c r="T28" s="21" t="n"/>
+      <c r="U28" s="21" t="n"/>
+      <c r="V28" s="21" t="n"/>
+      <c r="W28" s="21" t="n"/>
+      <c r="X28" s="21" t="n"/>
+      <c r="Y28" s="21" t="n"/>
+      <c r="Z28" s="21" t="n"/>
+      <c r="AA28" s="21" t="n"/>
+      <c r="AB28" s="21" t="n"/>
+      <c r="AC28" s="21" t="n"/>
+      <c r="AD28" s="21" t="n"/>
+      <c r="AE28" s="21" t="n"/>
+      <c r="AF28" s="21" t="n"/>
+      <c r="AG28" s="21" t="n"/>
+      <c r="AH28" s="21" t="n"/>
+      <c r="AI28" s="21" t="n"/>
+      <c r="AJ28" s="21" t="n"/>
+      <c r="AK28" s="21" t="n"/>
+      <c r="AL28" s="21" t="n"/>
+      <c r="AM28" s="21" t="n"/>
+      <c r="AN28" s="21" t="n"/>
+      <c r="AO28" s="21" t="n"/>
+    </row>
+    <row r="29" customFormat="1" s="19">
+      <c r="A29" s="22" t="n"/>
+      <c r="B29" s="22" t="n"/>
+      <c r="C29" s="22" t="n"/>
+      <c r="D29" s="21" t="n"/>
+      <c r="E29" s="21" t="n"/>
+      <c r="F29" s="21" t="n"/>
+      <c r="G29" s="21" t="n"/>
+      <c r="H29" s="21" t="n"/>
+      <c r="I29" s="21" t="n"/>
+      <c r="J29" s="21" t="n"/>
+      <c r="K29" s="21" t="n"/>
+      <c r="L29" s="21" t="n"/>
+      <c r="M29" s="21" t="n"/>
+      <c r="N29" s="21" t="n"/>
+      <c r="O29" s="21" t="n"/>
+      <c r="P29" s="21" t="n"/>
+      <c r="Q29" s="21" t="n"/>
+      <c r="R29" s="21" t="n"/>
+      <c r="S29" s="21" t="n"/>
+      <c r="T29" s="21" t="n"/>
+      <c r="U29" s="21" t="n"/>
+      <c r="V29" s="21" t="n"/>
+      <c r="W29" s="21" t="n"/>
+      <c r="X29" s="21" t="n"/>
+      <c r="Y29" s="21" t="n"/>
+      <c r="Z29" s="21" t="n"/>
+      <c r="AA29" s="21" t="n"/>
+      <c r="AB29" s="21" t="n"/>
+      <c r="AC29" s="21" t="n"/>
+      <c r="AD29" s="21" t="n"/>
+      <c r="AE29" s="21" t="n"/>
+      <c r="AF29" s="21" t="n"/>
+      <c r="AG29" s="21" t="n"/>
+      <c r="AH29" s="21" t="n"/>
+      <c r="AI29" s="21" t="n"/>
+      <c r="AJ29" s="21" t="n"/>
+      <c r="AK29" s="21" t="n"/>
+      <c r="AL29" s="21" t="n"/>
+      <c r="AM29" s="21" t="n"/>
+      <c r="AN29" s="21" t="n"/>
+      <c r="AO29" s="21" t="n"/>
+    </row>
+    <row r="30" customFormat="1" s="19">
+      <c r="A30" s="22" t="n"/>
+      <c r="B30" s="22" t="n"/>
+      <c r="C30" s="22" t="n"/>
+      <c r="D30" s="21" t="n"/>
+      <c r="E30" s="21" t="n"/>
+      <c r="F30" s="21" t="n"/>
+      <c r="G30" s="21" t="n"/>
+      <c r="H30" s="21" t="n"/>
+      <c r="I30" s="21" t="n"/>
+      <c r="J30" s="21" t="n"/>
+      <c r="K30" s="21" t="n"/>
+      <c r="L30" s="21" t="n"/>
+      <c r="M30" s="21" t="n"/>
+      <c r="N30" s="21" t="n"/>
+      <c r="O30" s="21" t="n"/>
+      <c r="P30" s="21" t="n"/>
+      <c r="Q30" s="21" t="n"/>
+      <c r="R30" s="21" t="n"/>
+      <c r="S30" s="21" t="n"/>
+      <c r="T30" s="21" t="n"/>
+      <c r="U30" s="21" t="n"/>
+      <c r="V30" s="21" t="n"/>
+      <c r="W30" s="21" t="n"/>
+      <c r="X30" s="21" t="n"/>
+      <c r="Y30" s="21" t="n"/>
+      <c r="Z30" s="21" t="n"/>
+      <c r="AA30" s="21" t="n"/>
+      <c r="AB30" s="21" t="n"/>
+      <c r="AC30" s="21" t="n"/>
+      <c r="AD30" s="21" t="n"/>
+      <c r="AE30" s="21" t="n"/>
+      <c r="AF30" s="21" t="n"/>
+      <c r="AG30" s="21" t="n"/>
+      <c r="AH30" s="21" t="n"/>
+      <c r="AI30" s="21" t="n"/>
+      <c r="AJ30" s="21" t="n"/>
+      <c r="AK30" s="21" t="n"/>
+      <c r="AL30" s="21" t="n"/>
+      <c r="AM30" s="21" t="n"/>
+      <c r="AN30" s="21" t="n"/>
+      <c r="AO30" s="21" t="n"/>
+    </row>
+    <row r="31" customFormat="1" s="19">
+      <c r="A31" s="22" t="n"/>
+      <c r="B31" s="22" t="n"/>
+      <c r="C31" s="22" t="n"/>
+      <c r="D31" s="21" t="n"/>
+      <c r="E31" s="21" t="n"/>
+      <c r="F31" s="21" t="n"/>
+      <c r="G31" s="21" t="n"/>
+      <c r="H31" s="21" t="n"/>
+      <c r="I31" s="21" t="n"/>
+      <c r="J31" s="21" t="n"/>
+      <c r="K31" s="21" t="n"/>
+      <c r="L31" s="21" t="n"/>
+      <c r="M31" s="21" t="n"/>
+      <c r="N31" s="21" t="n"/>
+      <c r="O31" s="21" t="n"/>
+      <c r="P31" s="21" t="n"/>
+      <c r="Q31" s="21" t="n"/>
+      <c r="R31" s="21" t="n"/>
+      <c r="S31" s="21" t="n"/>
+      <c r="T31" s="21" t="n"/>
+      <c r="U31" s="21" t="n"/>
+      <c r="V31" s="21" t="n"/>
+      <c r="W31" s="21" t="n"/>
+      <c r="X31" s="21" t="n"/>
+      <c r="Y31" s="21" t="n"/>
+      <c r="Z31" s="21" t="n"/>
+      <c r="AA31" s="21" t="n"/>
+      <c r="AB31" s="21" t="n"/>
+      <c r="AC31" s="21" t="n"/>
+      <c r="AD31" s="21" t="n"/>
+      <c r="AE31" s="21" t="n"/>
+      <c r="AF31" s="21" t="n"/>
+      <c r="AG31" s="21" t="n"/>
+      <c r="AH31" s="21" t="n"/>
+      <c r="AI31" s="21" t="n"/>
+      <c r="AJ31" s="21" t="n"/>
+      <c r="AK31" s="21" t="n"/>
+      <c r="AL31" s="21" t="n"/>
+      <c r="AM31" s="21" t="n"/>
+      <c r="AN31" s="21" t="n"/>
+      <c r="AO31" s="21" t="n"/>
+    </row>
+    <row r="32" customFormat="1" s="19">
+      <c r="A32" s="22" t="n"/>
+      <c r="B32" s="22" t="n"/>
+      <c r="C32" s="22" t="n"/>
+      <c r="D32" s="21" t="n"/>
+      <c r="E32" s="21" t="n"/>
+      <c r="F32" s="21" t="n"/>
+      <c r="G32" s="21" t="n"/>
+      <c r="H32" s="21" t="n"/>
+      <c r="I32" s="21" t="n"/>
+      <c r="J32" s="21" t="n"/>
+      <c r="K32" s="21" t="n"/>
+      <c r="L32" s="21" t="n"/>
+      <c r="M32" s="21" t="n"/>
+      <c r="N32" s="21" t="n"/>
+      <c r="O32" s="21" t="n"/>
+      <c r="P32" s="21" t="n"/>
+      <c r="Q32" s="21" t="n"/>
+      <c r="R32" s="21" t="n"/>
+      <c r="S32" s="21" t="n"/>
+      <c r="T32" s="21" t="n"/>
+      <c r="U32" s="21" t="n"/>
+      <c r="V32" s="21" t="n"/>
+      <c r="W32" s="21" t="n"/>
+      <c r="X32" s="21" t="n"/>
+      <c r="Y32" s="21" t="n"/>
+      <c r="Z32" s="21" t="n"/>
+      <c r="AA32" s="21" t="n"/>
+      <c r="AB32" s="21" t="n"/>
+      <c r="AC32" s="21" t="n"/>
+      <c r="AD32" s="21" t="n"/>
+      <c r="AE32" s="21" t="n"/>
+      <c r="AF32" s="21" t="n"/>
+      <c r="AG32" s="21" t="n"/>
+      <c r="AH32" s="21" t="n"/>
+      <c r="AI32" s="21" t="n"/>
+      <c r="AJ32" s="21" t="n"/>
+      <c r="AK32" s="21" t="n"/>
+      <c r="AL32" s="21" t="n"/>
+      <c r="AM32" s="21" t="n"/>
+      <c r="AN32" s="21" t="n"/>
+      <c r="AO32" s="21" t="n"/>
+    </row>
+    <row r="33" customFormat="1" s="19">
+      <c r="A33" s="22" t="n"/>
+      <c r="B33" s="22" t="n"/>
+      <c r="C33" s="22" t="n"/>
+      <c r="D33" s="21" t="n"/>
+      <c r="E33" s="21" t="n"/>
+      <c r="F33" s="21" t="n"/>
+      <c r="G33" s="21" t="n"/>
+      <c r="H33" s="21" t="n"/>
+      <c r="I33" s="21" t="n"/>
+      <c r="J33" s="21" t="n"/>
+      <c r="K33" s="21" t="n"/>
+      <c r="L33" s="21" t="n"/>
+      <c r="M33" s="21" t="n"/>
+      <c r="N33" s="21" t="n"/>
+      <c r="O33" s="21" t="n"/>
+      <c r="P33" s="21" t="n"/>
+      <c r="Q33" s="21" t="n"/>
+      <c r="R33" s="21" t="n"/>
+      <c r="S33" s="21" t="n"/>
+      <c r="T33" s="21" t="n"/>
+      <c r="U33" s="21" t="n"/>
+      <c r="V33" s="21" t="n"/>
+      <c r="W33" s="21" t="n"/>
+      <c r="X33" s="21" t="n"/>
+      <c r="Y33" s="21" t="n"/>
+      <c r="Z33" s="21" t="n"/>
+      <c r="AA33" s="21" t="n"/>
+      <c r="AB33" s="21" t="n"/>
+      <c r="AC33" s="21" t="n"/>
+      <c r="AD33" s="21" t="n"/>
+      <c r="AE33" s="21" t="n"/>
+      <c r="AF33" s="21" t="n"/>
+      <c r="AG33" s="21" t="n"/>
+      <c r="AH33" s="21" t="n"/>
+      <c r="AI33" s="21" t="n"/>
+      <c r="AJ33" s="21" t="n"/>
+      <c r="AK33" s="21" t="n"/>
+      <c r="AL33" s="21" t="n"/>
+      <c r="AM33" s="21" t="n"/>
+      <c r="AN33" s="21" t="n"/>
+      <c r="AO33" s="21" t="n"/>
+    </row>
+    <row r="34" customFormat="1" s="19">
+      <c r="A34" s="22" t="n"/>
+      <c r="B34" s="22" t="n"/>
+      <c r="C34" s="22" t="n"/>
+      <c r="D34" s="21" t="n"/>
+      <c r="E34" s="21" t="n"/>
+      <c r="F34" s="21" t="n"/>
+      <c r="G34" s="21" t="n"/>
+      <c r="H34" s="21" t="n"/>
+      <c r="I34" s="21" t="n"/>
+      <c r="J34" s="21" t="n"/>
+      <c r="K34" s="21" t="n"/>
+      <c r="L34" s="21" t="n"/>
+      <c r="M34" s="21" t="n"/>
+      <c r="N34" s="21" t="n"/>
+      <c r="O34" s="21" t="n"/>
+      <c r="P34" s="21" t="n"/>
+      <c r="Q34" s="21" t="n"/>
+      <c r="R34" s="21" t="n"/>
+      <c r="S34" s="21" t="n"/>
+      <c r="T34" s="21" t="n"/>
+      <c r="U34" s="21" t="n"/>
+      <c r="V34" s="21" t="n"/>
+      <c r="W34" s="21" t="n"/>
+      <c r="X34" s="21" t="n"/>
+      <c r="Y34" s="21" t="n"/>
+      <c r="Z34" s="21" t="n"/>
+      <c r="AA34" s="21" t="n"/>
+      <c r="AB34" s="21" t="n"/>
+      <c r="AC34" s="21" t="n"/>
+      <c r="AD34" s="21" t="n"/>
+      <c r="AE34" s="21" t="n"/>
+      <c r="AF34" s="21" t="n"/>
+      <c r="AG34" s="21" t="n"/>
+      <c r="AH34" s="21" t="n"/>
+      <c r="AI34" s="21" t="n"/>
+      <c r="AJ34" s="21" t="n"/>
+      <c r="AK34" s="21" t="n"/>
+      <c r="AL34" s="21" t="n"/>
+      <c r="AM34" s="21" t="n"/>
+      <c r="AN34" s="21" t="n"/>
+      <c r="AO34" s="21" t="n"/>
+    </row>
+    <row r="35" customFormat="1" s="19">
+      <c r="A35" s="22" t="n"/>
+      <c r="B35" s="22" t="n"/>
+      <c r="C35" s="22" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="21" t="n"/>
+      <c r="F35" s="21" t="n"/>
+      <c r="G35" s="21" t="n"/>
+      <c r="H35" s="21" t="n"/>
+      <c r="I35" s="21" t="n"/>
+      <c r="J35" s="21" t="n"/>
+      <c r="K35" s="21" t="n"/>
+      <c r="L35" s="21" t="n"/>
+      <c r="M35" s="21" t="n"/>
+      <c r="N35" s="21" t="n"/>
+      <c r="O35" s="21" t="n"/>
+      <c r="P35" s="21" t="n"/>
+      <c r="Q35" s="21" t="n"/>
+      <c r="R35" s="21" t="n"/>
+      <c r="S35" s="21" t="n"/>
+      <c r="T35" s="21" t="n"/>
+      <c r="U35" s="21" t="n"/>
+      <c r="V35" s="21" t="n"/>
+      <c r="W35" s="21" t="n"/>
+      <c r="X35" s="21" t="n"/>
+      <c r="Y35" s="21" t="n"/>
+      <c r="Z35" s="21" t="n"/>
+      <c r="AA35" s="21" t="n"/>
+      <c r="AB35" s="21" t="n"/>
+      <c r="AC35" s="21" t="n"/>
+      <c r="AD35" s="21" t="n"/>
+      <c r="AE35" s="21" t="n"/>
+      <c r="AF35" s="21" t="n"/>
+      <c r="AG35" s="21" t="n"/>
+      <c r="AH35" s="21" t="n"/>
+      <c r="AI35" s="21" t="n"/>
+      <c r="AJ35" s="21" t="n"/>
+      <c r="AK35" s="21" t="n"/>
+      <c r="AL35" s="21" t="n"/>
+      <c r="AM35" s="21" t="n"/>
+      <c r="AN35" s="21" t="n"/>
+      <c r="AO35" s="21" t="n"/>
+    </row>
+    <row r="36" customFormat="1" s="19">
+      <c r="A36" s="22" t="n"/>
+      <c r="B36" s="22" t="n"/>
+      <c r="C36" s="22" t="n"/>
+      <c r="D36" s="21" t="n"/>
+      <c r="E36" s="21" t="n"/>
+      <c r="F36" s="21" t="n"/>
+      <c r="G36" s="21" t="n"/>
+      <c r="H36" s="21" t="n"/>
+      <c r="I36" s="21" t="n"/>
+      <c r="J36" s="21" t="n"/>
+      <c r="K36" s="21" t="n"/>
+      <c r="L36" s="21" t="n"/>
+      <c r="M36" s="21" t="n"/>
+      <c r="N36" s="21" t="n"/>
+      <c r="O36" s="21" t="n"/>
+      <c r="P36" s="21" t="n"/>
+      <c r="Q36" s="21" t="n"/>
+      <c r="R36" s="21" t="n"/>
+      <c r="S36" s="21" t="n"/>
+      <c r="T36" s="21" t="n"/>
+      <c r="U36" s="21" t="n"/>
+      <c r="V36" s="21" t="n"/>
+      <c r="W36" s="21" t="n"/>
+      <c r="X36" s="21" t="n"/>
+      <c r="Y36" s="21" t="n"/>
+      <c r="Z36" s="21" t="n"/>
+      <c r="AA36" s="21" t="n"/>
+      <c r="AB36" s="21" t="n"/>
+      <c r="AC36" s="21" t="n"/>
+      <c r="AD36" s="21" t="n"/>
+      <c r="AE36" s="21" t="n"/>
+      <c r="AF36" s="21" t="n"/>
+      <c r="AG36" s="21" t="n"/>
+      <c r="AH36" s="21" t="n"/>
+      <c r="AI36" s="21" t="n"/>
+      <c r="AJ36" s="21" t="n"/>
+      <c r="AK36" s="21" t="n"/>
+      <c r="AL36" s="21" t="n"/>
+      <c r="AM36" s="21" t="n"/>
+      <c r="AN36" s="21" t="n"/>
+      <c r="AO36" s="21" t="n"/>
+    </row>
+    <row r="37" customFormat="1" s="19">
+      <c r="A37" s="22" t="n"/>
+      <c r="B37" s="22" t="n"/>
+      <c r="C37" s="22" t="n"/>
+      <c r="D37" s="21" t="n"/>
+      <c r="E37" s="21" t="n"/>
+      <c r="F37" s="21" t="n"/>
+      <c r="G37" s="21" t="n"/>
+      <c r="H37" s="21" t="n"/>
+      <c r="I37" s="21" t="n"/>
+      <c r="J37" s="21" t="n"/>
+      <c r="K37" s="21" t="n"/>
+      <c r="L37" s="21" t="n"/>
+      <c r="M37" s="21" t="n"/>
+      <c r="N37" s="21" t="n"/>
+      <c r="O37" s="21" t="n"/>
+      <c r="P37" s="21" t="n"/>
+      <c r="Q37" s="21" t="n"/>
+      <c r="R37" s="21" t="n"/>
+      <c r="S37" s="21" t="n"/>
+      <c r="T37" s="21" t="n"/>
+      <c r="U37" s="21" t="n"/>
+      <c r="V37" s="21" t="n"/>
+      <c r="W37" s="21" t="n"/>
+      <c r="X37" s="21" t="n"/>
+      <c r="Y37" s="21" t="n"/>
+      <c r="Z37" s="21" t="n"/>
+      <c r="AA37" s="21" t="n"/>
+      <c r="AB37" s="21" t="n"/>
+      <c r="AC37" s="21" t="n"/>
+      <c r="AD37" s="21" t="n"/>
+      <c r="AE37" s="21" t="n"/>
+      <c r="AF37" s="21" t="n"/>
+      <c r="AG37" s="21" t="n"/>
+      <c r="AH37" s="21" t="n"/>
+      <c r="AI37" s="21" t="n"/>
+      <c r="AJ37" s="21" t="n"/>
+      <c r="AK37" s="21" t="n"/>
+      <c r="AL37" s="21" t="n"/>
+      <c r="AM37" s="21" t="n"/>
+      <c r="AN37" s="21" t="n"/>
+      <c r="AO37" s="21" t="n"/>
+    </row>
+    <row r="38" customFormat="1" s="19">
+      <c r="A38" s="22" t="n"/>
+      <c r="B38" s="22" t="n"/>
+      <c r="C38" s="22" t="n"/>
+      <c r="D38" s="21" t="n"/>
+      <c r="E38" s="21" t="n"/>
+      <c r="F38" s="21" t="n"/>
+      <c r="G38" s="21" t="n"/>
+      <c r="H38" s="21" t="n"/>
+      <c r="I38" s="21" t="n"/>
+      <c r="J38" s="21" t="n"/>
+      <c r="K38" s="21" t="n"/>
+      <c r="L38" s="21" t="n"/>
+      <c r="M38" s="21" t="n"/>
+      <c r="N38" s="21" t="n"/>
+      <c r="O38" s="21" t="n"/>
+      <c r="P38" s="21" t="n"/>
+      <c r="Q38" s="21" t="n"/>
+      <c r="R38" s="21" t="n"/>
+      <c r="S38" s="21" t="n"/>
+      <c r="T38" s="21" t="n"/>
+      <c r="U38" s="21" t="n"/>
+      <c r="V38" s="21" t="n"/>
+      <c r="W38" s="21" t="n"/>
+      <c r="X38" s="21" t="n"/>
+      <c r="Y38" s="21" t="n"/>
+      <c r="Z38" s="21" t="n"/>
+      <c r="AA38" s="21" t="n"/>
+      <c r="AB38" s="21" t="n"/>
+      <c r="AC38" s="21" t="n"/>
+      <c r="AD38" s="21" t="n"/>
+      <c r="AE38" s="21" t="n"/>
+      <c r="AF38" s="21" t="n"/>
+      <c r="AG38" s="21" t="n"/>
+      <c r="AH38" s="21" t="n"/>
+      <c r="AI38" s="21" t="n"/>
+      <c r="AJ38" s="21" t="n"/>
+      <c r="AK38" s="21" t="n"/>
+      <c r="AL38" s="21" t="n"/>
+      <c r="AM38" s="21" t="n"/>
+      <c r="AN38" s="21" t="n"/>
+      <c r="AO38" s="21" t="n"/>
+    </row>
+    <row r="39" customFormat="1" s="19">
+      <c r="A39" s="22" t="n"/>
+      <c r="B39" s="22" t="n"/>
+      <c r="C39" s="22" t="n"/>
+      <c r="D39" s="21" t="n"/>
+      <c r="E39" s="21" t="n"/>
+      <c r="F39" s="21" t="n"/>
+      <c r="G39" s="21" t="n"/>
+      <c r="H39" s="21" t="n"/>
+      <c r="I39" s="21" t="n"/>
+      <c r="J39" s="21" t="n"/>
+      <c r="K39" s="21" t="n"/>
+      <c r="L39" s="21" t="n"/>
+      <c r="M39" s="21" t="n"/>
+      <c r="N39" s="21" t="n"/>
+      <c r="O39" s="21" t="n"/>
+      <c r="P39" s="21" t="n"/>
+      <c r="Q39" s="21" t="n"/>
+      <c r="R39" s="21" t="n"/>
+      <c r="S39" s="21" t="n"/>
+      <c r="T39" s="21" t="n"/>
+      <c r="U39" s="21" t="n"/>
+      <c r="V39" s="21" t="n"/>
+      <c r="W39" s="21" t="n"/>
+      <c r="X39" s="21" t="n"/>
+      <c r="Y39" s="21" t="n"/>
+      <c r="Z39" s="21" t="n"/>
+      <c r="AA39" s="21" t="n"/>
+      <c r="AB39" s="21" t="n"/>
+      <c r="AC39" s="21" t="n"/>
+      <c r="AD39" s="21" t="n"/>
+      <c r="AE39" s="21" t="n"/>
+      <c r="AF39" s="21" t="n"/>
+      <c r="AG39" s="21" t="n"/>
+      <c r="AH39" s="21" t="n"/>
+      <c r="AI39" s="21" t="n"/>
+      <c r="AJ39" s="21" t="n"/>
+      <c r="AK39" s="21" t="n"/>
+      <c r="AL39" s="21" t="n"/>
+      <c r="AM39" s="21" t="n"/>
+      <c r="AN39" s="21" t="n"/>
+      <c r="AO39" s="21" t="n"/>
+    </row>
+    <row r="40" customFormat="1" s="19">
+      <c r="A40" s="22" t="n"/>
+      <c r="B40" s="22" t="n"/>
+      <c r="C40" s="22" t="n"/>
+      <c r="D40" s="21" t="n"/>
+      <c r="E40" s="21" t="n"/>
+      <c r="F40" s="21" t="n"/>
+      <c r="G40" s="21" t="n"/>
+      <c r="H40" s="21" t="n"/>
+      <c r="I40" s="21" t="n"/>
+      <c r="J40" s="21" t="n"/>
+      <c r="K40" s="21" t="n"/>
+      <c r="L40" s="21" t="n"/>
+      <c r="M40" s="21" t="n"/>
+      <c r="N40" s="21" t="n"/>
+      <c r="O40" s="21" t="n"/>
+      <c r="P40" s="21" t="n"/>
+      <c r="Q40" s="21" t="n"/>
+      <c r="R40" s="21" t="n"/>
+      <c r="S40" s="21" t="n"/>
+      <c r="T40" s="21" t="n"/>
+      <c r="U40" s="21" t="n"/>
+      <c r="V40" s="21" t="n"/>
+      <c r="W40" s="21" t="n"/>
+      <c r="X40" s="21" t="n"/>
+      <c r="Y40" s="21" t="n"/>
+      <c r="Z40" s="21" t="n"/>
+      <c r="AA40" s="21" t="n"/>
+      <c r="AB40" s="21" t="n"/>
+      <c r="AC40" s="21" t="n"/>
+      <c r="AD40" s="21" t="n"/>
+      <c r="AE40" s="21" t="n"/>
+      <c r="AF40" s="21" t="n"/>
+      <c r="AG40" s="21" t="n"/>
+      <c r="AH40" s="21" t="n"/>
+      <c r="AI40" s="21" t="n"/>
+      <c r="AJ40" s="21" t="n"/>
+      <c r="AK40" s="21" t="n"/>
+      <c r="AL40" s="21" t="n"/>
+      <c r="AM40" s="21" t="n"/>
+      <c r="AN40" s="21" t="n"/>
+      <c r="AO40" s="21" t="n"/>
+    </row>
+    <row r="41" customFormat="1" s="19"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D1:M1"/>
@@ -3009,33 +3909,33 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="35.1796875" customWidth="1" style="30" min="1" max="1"/>
-    <col width="37.6328125" customWidth="1" style="30" min="2" max="2"/>
-    <col width="17.1796875" customWidth="1" style="30" min="3" max="3"/>
-    <col width="57.36328125" customWidth="1" style="30" min="4" max="4"/>
-    <col width="27.08984375" customWidth="1" style="30" min="5" max="5"/>
-    <col width="24.6328125" customWidth="1" style="30" min="6" max="6"/>
-    <col width="16.453125" customWidth="1" style="30" min="7" max="7"/>
-    <col width="27.6328125" customWidth="1" style="30" min="8" max="8"/>
-    <col width="16.453125" customWidth="1" style="30" min="9" max="10"/>
+    <col width="35.1759259259259" customWidth="1" style="27" min="1" max="1"/>
+    <col width="37.6296296296296" customWidth="1" style="27" min="2" max="2"/>
+    <col width="17.1759259259259" customWidth="1" style="27" min="3" max="3"/>
+    <col width="57.3611111111111" customWidth="1" style="27" min="4" max="4"/>
+    <col width="27.0925925925926" customWidth="1" style="27" min="5" max="5"/>
+    <col width="24.6296296296296" customWidth="1" style="27" min="6" max="6"/>
+    <col width="16.4537037037037" customWidth="1" style="27" min="7" max="7"/>
+    <col width="27.6296296296296" customWidth="1" style="27" min="8" max="8"/>
+    <col width="16.4537037037037" customWidth="1" style="27" min="9" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>注释</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>主要财务指标</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>本期收入(元)</t>
         </is>
@@ -3047,8 +3947,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="n"/>
-      <c r="B3" s="19" t="inlineStr">
+      <c r="A3" s="28" t="n"/>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>本期净利润(元)</t>
         </is>
@@ -3060,8 +3960,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="n"/>
-      <c r="B4" s="19" t="inlineStr">
+      <c r="A4" s="28" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>经营活动现金流量净额(元)</t>
         </is>
@@ -3073,13 +3973,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="n"/>
-      <c r="B5" s="19" t="inlineStr">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>营业收入(元)</t>
         </is>
       </c>
-      <c r="D5" s="17" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>这两个是合并利润表里的吗
 (看代码)</t>
@@ -3087,21 +3987,21 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="n"/>
-      <c r="B6" s="19" t="inlineStr">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>营业成本(元)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="A7" s="28" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>期末基金总资产(元)</t>
         </is>
       </c>
-      <c r="C7" s="18" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>期末数据和指标</t>
         </is>
@@ -3113,8 +4013,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" s="28" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>期末基金净资产(元)</t>
         </is>
@@ -3126,8 +4026,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="A9" s="28" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>期末基金总资产与净资产的比例（%）</t>
         </is>
@@ -3139,13 +4039,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="A10" s="28" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>期末基金份额净值(元)</t>
         </is>
       </c>
-      <c r="C10" s="25" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>其他财务指标</t>
         </is>
@@ -3157,8 +4057,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="A11" s="26" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>期末基金份额公允价值参考净值(元)</t>
         </is>
@@ -3170,12 +4070,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="20" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>收益分配情况</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>可供分配金额(本期)(元)</t>
         </is>
@@ -3187,8 +4087,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="n"/>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="A15" s="28" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>单位可供分配金额(本期)(元)</t>
         </is>
@@ -3200,13 +4100,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="31" t="n"/>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="A16" s="28" t="n"/>
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>实际分配金额(本期)(元)</t>
         </is>
       </c>
-      <c r="C16" s="18" t="n"/>
+      <c r="C16" s="1" t="n"/>
       <c r="D16" s="0" t="inlineStr">
         <is>
           <t>ok</t>
@@ -3214,8 +4114,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="n"/>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="A17" s="28" t="n"/>
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>单位实际分配金额(本期)(元)</t>
         </is>
@@ -3227,8 +4127,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="n"/>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="A18" s="28" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>折旧和摊销(元)</t>
         </is>
@@ -3240,8 +4140,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="n"/>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="A19" s="28" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>利息支出(元)</t>
         </is>
@@ -3253,8 +4153,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="31" t="n"/>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="A20" s="28" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>所得税费用(元)</t>
         </is>
@@ -3266,8 +4166,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="31" t="n"/>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="A21" s="28" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>税息折旧及摊销前利润(元)</t>
         </is>
@@ -3279,8 +4179,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="31" t="n"/>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="A22" s="28" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>调增项合计(元)</t>
         </is>
@@ -3292,8 +4192,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="29" t="n"/>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="A23" s="26" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>调减项合计(元)</t>
         </is>
@@ -3305,131 +4205,131 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="inlineStr">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>报告期内管理费</t>
         </is>
       </c>
-      <c r="B26" s="21" t="inlineStr">
+      <c r="B26" s="10" t="inlineStr">
         <is>
           <t>基金管理人计提管理费(元)</t>
         </is>
       </c>
-      <c r="D26" s="18" t="inlineStr">
+      <c r="D26" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="31" t="n"/>
-      <c r="B27" s="21" t="inlineStr">
+      <c r="A27" s="28" t="n"/>
+      <c r="B27" s="10" t="inlineStr">
         <is>
           <t>资产支持证券管理人计提管理费(元)</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="31" t="n"/>
-      <c r="B28" s="21" t="inlineStr">
+      <c r="A28" s="28" t="n"/>
+      <c r="B28" s="10" t="inlineStr">
         <is>
           <t>托管人计提托管费(元)</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="31" t="n"/>
-      <c r="B29" s="21" t="inlineStr">
+      <c r="A29" s="28" t="n"/>
+      <c r="B29" s="10" t="inlineStr">
         <is>
           <t>外部管理机构计提固定管理费(元)</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="29" t="n"/>
-      <c r="B30" s="21" t="inlineStr">
+      <c r="A30" s="26" t="n"/>
+      <c r="B30" s="10" t="inlineStr">
         <is>
           <t>外部管理机构计提浮动管理费(元)</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="32" t="inlineStr">
+      <c r="A33" s="29" t="inlineStr">
         <is>
           <t>其他基金指标</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>报告期初基金份额总额</t>
         </is>
       </c>
-      <c r="D33" s="18" t="inlineStr">
+      <c r="D33" s="1" t="inlineStr">
         <is>
           <t>货币资金和结算备付金合计</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="31" t="n"/>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="A34" s="28" t="n"/>
+      <c r="B34" s="14" t="inlineStr">
         <is>
           <t>报告期末基金份额总额</t>
         </is>
       </c>
-      <c r="D34" s="10" t="inlineStr">
+      <c r="D34" s="15" t="inlineStr">
         <is>
           <t>基金管理人所有从业人员持有本基金份额总数（份）</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="31" t="n"/>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="A35" s="28" t="n"/>
+      <c r="B35" s="14" t="inlineStr">
         <is>
           <t>期初管理人持有的本基金份额</t>
         </is>
       </c>
-      <c r="D35" s="25" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>基金管理人所有从业人员持有本基金占基金总份额比例（%）</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="31" t="n"/>
-      <c r="B36" s="9" t="inlineStr">
+      <c r="A36" s="28" t="n"/>
+      <c r="B36" s="14" t="inlineStr">
         <is>
           <t>期末管理人持有的本基金份额</t>
         </is>
       </c>
-      <c r="D36" s="18" t="inlineStr">
+      <c r="D36" s="1" t="inlineStr">
         <is>
           <t>基金合同生效日基金份额总额</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="31" t="n"/>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="A37" s="28" t="n"/>
+      <c r="B37" s="14" t="inlineStr">
         <is>
           <t>期末持有的本基金份额占基金总份额比例（%）</t>
         </is>
       </c>
-      <c r="D37" s="8" t="inlineStr">
+      <c r="D37" s="12" t="inlineStr">
         <is>
           <t>报告期初基金份额总额</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="29" t="n"/>
-      <c r="B38" s="9" t="inlineStr">
+      <c r="A38" s="26" t="n"/>
+      <c r="B38" s="14" t="inlineStr">
         <is>
           <t>银行存款和结算备付金合计</t>
         </is>
       </c>
-      <c r="D38" s="9" t="inlineStr">
+      <c r="D38" s="14" t="inlineStr">
         <is>
           <t>报告期末基金份额总额</t>
         </is>
@@ -3437,15 +4337,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A26:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -3464,7 +4364,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
